--- a/ReportTemplate/ReportPost.xlsx
+++ b/ReportTemplate/ReportPost.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453">
   <si>
     <t>岗级工资总额统计报表</t>
   </si>
@@ -182,6 +182,78 @@
     <t>&amp;=ReportLeader.AnnualYearEndPerformance</t>
   </si>
   <si>
+    <t>&amp;=ReportDeputyLeader.PositionName</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.AlreadyCount</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.PostWage</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.MonthlyPerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.SeniorityWage</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.TechnicalAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.PostAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.OvertimePay</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.DustCharge</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.NightAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.HardshipAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.TollStationService</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.ReplacementPay</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.HighSubsidies</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.CommunicationSubsidy</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.Reserve1</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.Reserve2</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.Other</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.NotCount</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.ReuseCount</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.NotName</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.ReuseName</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.NaturalYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=ReportDeputyLeader.AnnualYearEndPerformance</t>
+  </si>
+  <si>
     <t>&amp;=DepartmentChief.PositionName</t>
   </si>
   <si>
@@ -327,11 +399,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>&amp;=Manage.</t>
     </r>
     <r>
@@ -416,79 +483,154 @@
     <t>&amp;=Manage.AnnualYearEndPerformance</t>
   </si>
   <si>
-    <t>&amp;=Artisan.PositionName</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.PostRankName</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.AlreadyCount</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.PostWage</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.MonthlyPerformancePay</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.SeniorityWage</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.TechnicalAllowance</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.PostAllowance</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.OvertimePay</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.DustCharge</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.NightAllowance</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.HardshipAllowance</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.TollStationService</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.ReplacementPay</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.HighSubsidies</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.CommunicationSubsidy</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.Reserve1</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.Reserve2</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.Other</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.NotCount</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.ReuseCount</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.NotName</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.ReuseName</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.NaturalYearEndPerformance</t>
-  </si>
-  <si>
-    <t>&amp;=Artisan.AnnualYearEndPerformance</t>
+    <t>&amp;=MaintenanceTechnician.PositionName</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.PostRankName</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.AlreadyCount</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.PostWage</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.MonthlyPerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.SeniorityWage</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.TechnicalAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.PostAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.OvertimePay</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.DustCharge</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.NightAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.HardshipAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.TollStationService</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.ReplacementPay</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.HighSubsidies</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.CommunicationSubsidy</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.Reserve1</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.Reserve2</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.Other</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.NotCount</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.ReuseCount</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.NotName</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.ReuseName</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.NaturalYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=MaintenanceTechnician.AnnualYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.PositionName</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.PostRankName</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.AlreadyCount</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.PostWage</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.MonthlyPerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.SeniorityWage</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.TechnicalAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.PostAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.OvertimePay</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.DustCharge</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.NightAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.HardshipAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.TollStationService</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.ReplacementPay</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.HighSubsidies</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.CommunicationSubsidy</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.Reserve1</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.Reserve2</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.Other</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.NotCount</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.ReuseCount</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.NotName</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.ReuseName</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.NaturalYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=MechanicalTechnician.AnnualYearEndPerformance</t>
   </si>
   <si>
     <t>&amp;=ServiceAreaManager.PositionName</t>
@@ -566,6 +708,81 @@
     <t>&amp;=ServiceAreaManager.AnnualYearEndPerformance</t>
   </si>
   <si>
+    <t>&amp;=ServiceAreaElectrician.PositionName</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.PostRankName</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.AlreadyCount</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.PostWage</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.MonthlyPerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.SeniorityWage</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.TechnicalAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.PostAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.OvertimePay</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.DustCharge</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.NightAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.HardshipAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.TollStationService</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.ReplacementPay</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.HighSubsidies</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.CommunicationSubsidy</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.Reserve1</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.Reserve2</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.Other</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.NotCount</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.ReuseCount</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.NotName</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.ReuseName</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.NaturalYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=ServiceAreaElectrician.AnnualYearEndPerformance</t>
+  </si>
+  <si>
     <t>&amp;=TunnelStationPersonnel.PositionName</t>
   </si>
   <si>
@@ -641,6 +858,231 @@
     <t>&amp;=TunnelStationPersonnel.AnnualYearEndPerformance</t>
   </si>
   <si>
+    <t>&amp;=HandyMan.PositionName</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.PostRankName</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.AlreadyCount</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.PostWage</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.MonthlyPerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.SeniorityWage</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.TechnicalAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.PostAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.OvertimePay</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.DustCharge</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.NightAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.HardshipAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.TollStationService</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.ReplacementPay</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.HighSubsidies</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.CommunicationSubsidy</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.Reserve1</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.Reserve2</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.Other</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.NotCount</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.ReuseCount</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.NotName</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.ReuseName</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.NaturalYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=HandyMan.AnnualYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.PositionName</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.PostRankName</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.AlreadyCount</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.PostWage</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.MonthlyPerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.SeniorityWage</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.TechnicalAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.PostAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.OvertimePay</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.DustCharge</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.NightAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.HardshipAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.TollStationService</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.ReplacementPay</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.HighSubsidies</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.CommunicationSubsidy</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.Reserve1</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.Reserve2</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.Other</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.NotCount</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.ReuseCount</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.NotName</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.ReuseName</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.NaturalYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=TriagePersonnel.AnnualYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.PositionName</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.PostRankName</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.AlreadyCount</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.PostWage</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.MonthlyPerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.SeniorityWage</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.TechnicalAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.PostAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.OvertimePay</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.DustCharge</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.NightAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.HardshipAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.TollStationService</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.ReplacementPay</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.HighSubsidies</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.CommunicationSubsidy</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.Reserve1</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.Reserve2</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.Other</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.NotCount</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.ReuseCount</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.NotName</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.ReuseName</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.NaturalYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationElectrician.AnnualYearEndPerformance</t>
+  </si>
+  <si>
     <t>&amp;=TunnelMonitor.PositionName</t>
   </si>
   <si>
@@ -714,156 +1156,6 @@
   </si>
   <si>
     <t>&amp;=TunnelMonitor.AnnualYearEndPerformance</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.PositionName</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.PostRankName</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.AlreadyCount</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.PostWage</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.MonthlyPerformancePay</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.SeniorityWage</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.TechnicalAllowance</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.PostAllowance</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.OvertimePay</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.DustCharge</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.NightAllowance</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.HardshipAllowance</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.TollStationService</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.ReplacementPay</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.HighSubsidies</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.CommunicationSubsidy</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.Reserve1</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.Reserve2</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.Other</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.NotCount</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.ReuseCount</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.NotName</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.ReuseName</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.NaturalYearEndPerformance</t>
-  </si>
-  <si>
-    <t>&amp;=HandyMan.AnnualYearEndPerformance</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.PositionName</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.PostRankName</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.AlreadyCount</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.PostWage</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.MonthlyPerformancePay</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.SeniorityWage</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.TechnicalAllowance</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.PostAllowance</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.OvertimePay</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.DustCharge</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.NightAllowance</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.HardshipAllowance</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.TollStationService</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.ReplacementPay</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.HighSubsidies</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.CommunicationSubsidy</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.Reserve1</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.Reserve2</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.Other</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.NotCount</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.ReuseCount</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.NotName</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.ReuseName</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.NaturalYearEndPerformance</t>
-  </si>
-  <si>
-    <t>&amp;=TriagePersonnel.AnnualYearEndPerformance</t>
   </si>
   <si>
     <t>&amp;=TollStationManagement.PositionName</t>
@@ -1107,7 +1399,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1117,6 +1409,12 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1145,6 +1443,13 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1640,160 +1945,160 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1806,34 +2111,43 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2201,1511 +2515,1834 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="6.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5.125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="5.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="6.125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="6.25" style="5" customWidth="1"/>
-    <col min="11" max="11" width="5.625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="6.75" style="5" customWidth="1"/>
-    <col min="13" max="13" width="7" style="5" customWidth="1"/>
-    <col min="14" max="14" width="5.625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="4.5" style="5" customWidth="1"/>
-    <col min="16" max="16" width="4.375" style="5" customWidth="1"/>
-    <col min="17" max="18" width="4.25" style="5" customWidth="1"/>
-    <col min="19" max="19" width="8.125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="17.75" style="5" customWidth="1"/>
-    <col min="21" max="21" width="11.25" style="5" customWidth="1"/>
-    <col min="22" max="22" width="11.125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="10.375" style="5" customWidth="1"/>
-    <col min="24" max="24" width="15.125" style="5" customWidth="1"/>
-    <col min="25" max="25" width="11.625" style="5" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="5.25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6.125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="6.25" style="6" customWidth="1"/>
+    <col min="11" max="11" width="5.625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="6.75" style="6" customWidth="1"/>
+    <col min="13" max="13" width="7" style="6" customWidth="1"/>
+    <col min="14" max="14" width="5.625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="4.5" style="6" customWidth="1"/>
+    <col min="16" max="16" width="4.375" style="6" customWidth="1"/>
+    <col min="17" max="18" width="4.25" style="6" customWidth="1"/>
+    <col min="19" max="19" width="8.125" style="5" customWidth="1"/>
+    <col min="20" max="20" width="17.75" style="6" customWidth="1"/>
+    <col min="21" max="21" width="11.25" style="6" customWidth="1"/>
+    <col min="22" max="22" width="11.125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="10.375" style="6" customWidth="1"/>
+    <col min="24" max="24" width="15.125" style="6" customWidth="1"/>
+    <col min="25" max="25" width="11.625" style="6" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="1:27">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
     </row>
     <row r="2" customFormat="1" ht="24" customHeight="1" spans="1:27">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="8" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:27">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="24" customHeight="1" spans="1:27">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="T4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10" t="s">
+      <c r="U4" s="11"/>
+      <c r="V4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Y4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AA4" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="24" customHeight="1" spans="1:27">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="T5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10" t="s">
+      <c r="U5" s="11"/>
+      <c r="V5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="Y5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="Z5" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AA5" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="1:27">
-      <c r="A6" s="10" t="s">
+    <row r="6" s="3" customFormat="1" ht="24" customHeight="1" spans="1:27">
+      <c r="A6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="O6" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="S6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10" t="s">
+      <c r="U6" s="12"/>
+      <c r="V6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="W6" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="X6" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="Y6" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="Z6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AA6" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A7" s="10" t="s">
+    <row r="7" s="3" customFormat="1" ht="24" customHeight="1" spans="1:27">
+      <c r="A7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E7" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J7" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="L7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="M7" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="N7" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="O7" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="P7" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="Q7" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="R7" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="S7" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="T7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="W7" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="39" customHeight="1" spans="1:27">
+      <c r="A8" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="T8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="X7" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y7" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z7" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA7" s="10" t="s">
-        <v>126</v>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A8" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="T8" s="13" t="s">
+    <row r="9" s="3" customFormat="1" ht="39" customHeight="1" spans="1:27">
+      <c r="A9" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="T9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="X8" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y8" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z8" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA8" s="10" t="s">
-        <v>151</v>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A9" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="T9" s="13" t="s">
+    <row r="10" s="3" customFormat="1" ht="39" customHeight="1" spans="1:27">
+      <c r="A10" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="T10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="W9" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y9" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z9" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA9" s="10" t="s">
-        <v>176</v>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A10" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="T10" s="13" t="s">
+    <row r="11" s="3" customFormat="1" ht="39" customHeight="1" spans="1:27">
+      <c r="A11" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="T11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="W10" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="X10" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z10" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA10" s="10" t="s">
-        <v>201</v>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z11" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A11" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="S11" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="T11" s="13" t="s">
+    <row r="12" s="3" customFormat="1" ht="39" customHeight="1" spans="1:27">
+      <c r="A12" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="T12" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="W11" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z11" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA11" s="10" t="s">
-        <v>226</v>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z12" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA12" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A12" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="T12" s="13" t="s">
+    <row r="13" s="3" customFormat="1" ht="39" customHeight="1" spans="1:27">
+      <c r="A13" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="T13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="W12" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="X12" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y12" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z12" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA12" s="10" t="s">
-        <v>251</v>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>275</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A13" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q13" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="S13" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="T13" s="13" t="s">
+    <row r="14" s="3" customFormat="1" ht="39" customHeight="1" spans="1:27">
+      <c r="A14" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="T14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="W13" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="X13" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="Y13" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z13" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA13" s="10" t="s">
-        <v>276</v>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z14" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>300</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A14" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q14" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="T14" s="13" t="s">
+    <row r="15" s="3" customFormat="1" ht="39" customHeight="1" spans="1:27">
+      <c r="A15" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="T15" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="W14" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="X14" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="Y14" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z14" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA14" s="10" t="s">
-        <v>301</v>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>325</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A15" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="T15" s="13" t="s">
+    <row r="16" s="3" customFormat="1" ht="39" customHeight="1" spans="1:27">
+      <c r="A16" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="T16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="W15" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="X15" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y15" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z15" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA15" s="10" t="s">
-        <v>326</v>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="X16" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z16" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>350</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="15" customHeight="1" spans="1:27">
-      <c r="A16" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11">
-        <f t="shared" ref="C16:T16" si="0">SUM(C6:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="11">
+    <row r="17" s="3" customFormat="1" ht="39" customHeight="1" spans="1:27">
+      <c r="A17" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="X17" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y17" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z17" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA17" s="12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="39" customHeight="1" spans="1:27">
+      <c r="A18" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="X18" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y18" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z18" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA18" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="39" customHeight="1" spans="1:27">
+      <c r="A19" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="X19" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y19" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z19" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA19" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" s="4" customFormat="1" ht="15" customHeight="1" spans="1:27">
+      <c r="A20" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13">
+        <f t="shared" ref="C20:T20" si="0">SUM(C7:C19)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T20" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11">
-        <f t="shared" ref="V16:AA16" si="1">SUM(V6:V15)</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="11">
+      <c r="U20" s="13"/>
+      <c r="V20" s="13">
+        <f t="shared" ref="V20:AA20" si="1">SUM(V7:V19)</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="11">
+      <c r="Z20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="11">
+      <c r="AA20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A17" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="T17" s="13" t="s">
+    <row r="21" s="3" customFormat="1" ht="39" customHeight="1" spans="1:27">
+      <c r="A21" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="T21" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="W17" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="X17" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="Y17" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="Z17" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="AA17" s="10" t="s">
-        <v>352</v>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="W21" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="X21" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y21" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z21" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA21" s="12" t="s">
+        <v>451</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" ht="13.5" customHeight="1" spans="1:27">
-      <c r="A18" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11">
-        <f t="shared" ref="C18:T18" si="2">SUM(C17:C17)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="11">
+    <row r="22" s="4" customFormat="1" ht="13.5" customHeight="1" spans="1:27">
+      <c r="A22" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13">
+        <f t="shared" ref="C22:T22" si="2">SUM(C21:C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T22" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11">
-        <f t="shared" ref="V18:AA18" si="3">SUM(V17:V17)</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="11">
+      <c r="U22" s="13"/>
+      <c r="V22" s="13">
+        <f t="shared" ref="V22:AA22" si="3">SUM(V21:V21)</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X18" s="11">
+      <c r="X22" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="11">
+      <c r="Y22" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="11">
+      <c r="Z22" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="11">
+      <c r="AA22" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" spans="2:2">
-      <c r="B19" s="12"/>
+    <row r="23" s="5" customFormat="1" spans="2:2">
+      <c r="B23" s="14"/>
     </row>
-    <row r="20" s="4" customFormat="1" spans="2:2">
-      <c r="B20" s="12"/>
+    <row r="24" s="5" customFormat="1" spans="2:2">
+      <c r="B24" s="14"/>
     </row>
-    <row r="21" s="4" customFormat="1" spans="2:2">
-      <c r="B21" s="12"/>
+    <row r="25" s="5" customFormat="1" spans="2:2">
+      <c r="B25" s="14"/>
     </row>
-    <row r="22" s="4" customFormat="1" spans="2:2">
-      <c r="B22" s="12"/>
+    <row r="26" s="5" customFormat="1" spans="2:2">
+      <c r="B26" s="14"/>
     </row>
-    <row r="23" s="4" customFormat="1" spans="2:2">
-      <c r="B23" s="12"/>
+    <row r="27" s="5" customFormat="1" spans="2:2">
+      <c r="B27" s="14"/>
     </row>
-    <row r="24" s="4" customFormat="1" spans="2:2">
-      <c r="B24" s="12"/>
+    <row r="28" s="5" customFormat="1" spans="2:2">
+      <c r="B28" s="14"/>
     </row>
-    <row r="25" s="4" customFormat="1" spans="2:2">
-      <c r="B25" s="12"/>
+    <row r="29" s="5" customFormat="1" spans="2:2">
+      <c r="B29" s="14"/>
     </row>
-    <row r="26" s="4" customFormat="1" spans="2:2">
-      <c r="B26" s="12"/>
+    <row r="30" s="5" customFormat="1" spans="2:2">
+      <c r="B30" s="14"/>
     </row>
-    <row r="27" s="4" customFormat="1" spans="2:2">
-      <c r="B27" s="12"/>
+    <row r="31" s="5" customFormat="1" spans="2:2">
+      <c r="B31" s="14"/>
     </row>
-    <row r="28" s="4" customFormat="1" spans="2:2">
-      <c r="B28" s="12"/>
+    <row r="32" s="5" customFormat="1" spans="2:2">
+      <c r="B32" s="14"/>
     </row>
-    <row r="29" s="4" customFormat="1" spans="2:2">
-      <c r="B29" s="12"/>
+    <row r="33" s="5" customFormat="1" spans="2:2">
+      <c r="B33" s="14"/>
     </row>
-    <row r="30" s="4" customFormat="1" spans="2:2">
-      <c r="B30" s="12"/>
+    <row r="34" s="5" customFormat="1" spans="2:2">
+      <c r="B34" s="14"/>
     </row>
-    <row r="31" s="4" customFormat="1" spans="2:2">
-      <c r="B31" s="12"/>
+    <row r="35" s="5" customFormat="1" spans="2:2">
+      <c r="B35" s="14"/>
     </row>
-    <row r="32" s="4" customFormat="1" spans="2:2">
-      <c r="B32" s="12"/>
+    <row r="36" s="5" customFormat="1" spans="2:2">
+      <c r="B36" s="14"/>
     </row>
-    <row r="33" s="4" customFormat="1" spans="2:2">
-      <c r="B33" s="12"/>
+    <row r="37" s="5" customFormat="1" spans="2:2">
+      <c r="B37" s="14"/>
     </row>
-    <row r="34" s="4" customFormat="1" spans="2:2">
-      <c r="B34" s="12"/>
+    <row r="38" s="5" customFormat="1" spans="2:2">
+      <c r="B38" s="14"/>
     </row>
-    <row r="35" s="4" customFormat="1" spans="2:2">
-      <c r="B35" s="12"/>
+    <row r="39" s="5" customFormat="1" spans="2:2">
+      <c r="B39" s="14"/>
     </row>
-    <row r="36" s="4" customFormat="1" spans="2:2">
-      <c r="B36" s="12"/>
+    <row r="40" s="5" customFormat="1" spans="2:2">
+      <c r="B40" s="14"/>
     </row>
-    <row r="37" s="4" customFormat="1" spans="2:2">
-      <c r="B37" s="12"/>
+    <row r="41" s="5" customFormat="1" spans="2:2">
+      <c r="B41" s="14"/>
     </row>
-    <row r="38" s="4" customFormat="1" spans="2:2">
-      <c r="B38" s="12"/>
+    <row r="42" s="5" customFormat="1" spans="2:2">
+      <c r="B42" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.159722222222222" right="0.159722222222222" top="0.2" bottom="0.2" header="0.509722222222222" footer="0.509722222222222"/>

--- a/ReportTemplate/ReportPost.xlsx
+++ b/ReportTemplate/ReportPost.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#\Project\PayrollReport\PayrollReport\MainUI\bin\Debug\ReportTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sydeny\Desktop\V201706102218B004_工资报表系统_正式版\V201706102218B004_工资报表系统_正式版\ReportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="597">
   <si>
     <t>岗级工资总额统计报表</t>
   </si>
@@ -1838,10 +1838,6 @@
   </si>
   <si>
     <t>&amp;=LaborDispatchPersonnel.Debit</t>
-  </si>
-  <si>
-    <t>&amp;=&amp;=Sum(D{r}:S{r})-AA{r}</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>&amp;=&amp;=Sum(D{r}:Z{r})-AA{r}</t>
@@ -2054,6 +2050,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2073,18 +2081,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2412,9 +2408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI42"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
+      <selection pane="bottomLeft" activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2426,7 +2422,13 @@
     <col min="5" max="5" width="8.875" style="6" customWidth="1"/>
     <col min="6" max="6" width="8.875" style="19" customWidth="1"/>
     <col min="7" max="7" width="6.625" style="19" customWidth="1"/>
-    <col min="8" max="14" width="5.125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="6.875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="9" style="19" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="19" customWidth="1"/>
+    <col min="14" max="14" width="5.125" style="19" customWidth="1"/>
     <col min="15" max="15" width="5.25" style="19" customWidth="1"/>
     <col min="16" max="16" width="6.125" style="19" customWidth="1"/>
     <col min="17" max="17" width="6.25" style="19" customWidth="1"/>
@@ -2435,7 +2437,7 @@
     <col min="20" max="20" width="7" style="19" customWidth="1"/>
     <col min="21" max="21" width="5.625" style="19" customWidth="1"/>
     <col min="22" max="22" width="4.5" style="19" customWidth="1"/>
-    <col min="23" max="23" width="4.375" style="19" customWidth="1"/>
+    <col min="23" max="23" width="6.375" style="19" customWidth="1"/>
     <col min="24" max="25" width="4.25" style="19" customWidth="1"/>
     <col min="26" max="27" width="8.125" style="19" customWidth="1"/>
     <col min="28" max="28" width="24.375" style="6" customWidth="1"/>
@@ -2448,43 +2450,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
     </row>
     <row r="2" spans="1:35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8"/>
@@ -2516,10 +2518,10 @@
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
       <c r="AA2" s="18"/>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="25"/>
+      <c r="AC2" s="29"/>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
@@ -2528,10 +2530,10 @@
       <c r="AI2" s="8"/>
     </row>
     <row r="3" spans="1:35" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2633,10 +2635,10 @@
       </c>
     </row>
     <row r="4" spans="1:35" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
@@ -2646,70 +2648,70 @@
       <c r="E4" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="21" t="s">
         <v>477</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="21" t="s">
         <v>494</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="21" t="s">
         <v>511</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="21" t="s">
         <v>545</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="O4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="P4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="R4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="29" t="s">
+      <c r="S4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="29" t="s">
+      <c r="T4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="29" t="s">
+      <c r="U4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="29" t="s">
+      <c r="V4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="29" t="s">
+      <c r="W4" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="29" t="s">
+      <c r="X4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="29" t="s">
+      <c r="Y4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="29" t="s">
+      <c r="Z4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AA4" s="28" t="s">
+      <c r="AA4" s="21" t="s">
         <v>579</v>
       </c>
       <c r="AB4" s="17" t="s">
@@ -2736,10 +2738,10 @@
       </c>
     </row>
     <row r="5" spans="1:35" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="16" t="s">
         <v>444</v>
       </c>
@@ -2749,70 +2751,70 @@
       <c r="E5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="21" t="s">
         <v>529</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="21" t="s">
         <v>546</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="O5" s="29" t="s">
+      <c r="O5" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="29" t="s">
+      <c r="P5" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="29" t="s">
+      <c r="Q5" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="29" t="s">
+      <c r="R5" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="S5" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="29" t="s">
+      <c r="T5" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="U5" s="29" t="s">
+      <c r="U5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="V5" s="29" t="s">
+      <c r="V5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="29" t="s">
+      <c r="W5" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="X5" s="29" t="s">
+      <c r="X5" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="Y5" s="29" t="s">
+      <c r="Y5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="Z5" s="29" t="s">
+      <c r="Z5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AA5" s="28" t="s">
+      <c r="AA5" s="21" t="s">
         <v>580</v>
       </c>
       <c r="AB5" s="17" t="s">
@@ -2839,10 +2841,10 @@
       </c>
     </row>
     <row r="6" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="12" t="s">
         <v>75</v>
       </c>
@@ -2852,70 +2854,70 @@
       <c r="E6" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="21" t="s">
         <v>530</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="21" t="s">
         <v>564</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="Q6" s="30" t="s">
+      <c r="Q6" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="R6" s="30" t="s">
+      <c r="R6" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="S6" s="30" t="s">
+      <c r="S6" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="T6" s="30" t="s">
+      <c r="T6" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="30" t="s">
+      <c r="U6" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="V6" s="30" t="s">
+      <c r="V6" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="W6" s="30" t="s">
+      <c r="W6" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="X6" s="30" t="s">
+      <c r="X6" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="Y6" s="30" t="s">
+      <c r="Y6" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="Z6" s="30" t="s">
+      <c r="Z6" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="AA6" s="28" t="s">
+      <c r="AA6" s="21" t="s">
         <v>581</v>
       </c>
       <c r="AB6" s="17" t="s">
@@ -2942,10 +2944,10 @@
       </c>
     </row>
     <row r="7" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="12" t="s">
         <v>98</v>
       </c>
@@ -2955,74 +2957,74 @@
       <c r="E7" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="O7" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="R7" s="30" t="s">
+      <c r="R7" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="S7" s="30" t="s">
+      <c r="S7" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="T7" s="30" t="s">
+      <c r="T7" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="U7" s="30" t="s">
+      <c r="U7" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="V7" s="30" t="s">
+      <c r="V7" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="W7" s="30" t="s">
+      <c r="W7" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="X7" s="30" t="s">
+      <c r="X7" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="Y7" s="30" t="s">
+      <c r="Y7" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="Z7" s="30" t="s">
+      <c r="Z7" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="AA7" s="28" t="s">
+      <c r="AA7" s="21" t="s">
         <v>582</v>
       </c>
       <c r="AB7" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AC7" s="12"/>
       <c r="AD7" s="12" t="s">
@@ -3060,74 +3062,74 @@
       <c r="E8" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="21" t="s">
         <v>549</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="R8" s="30" t="s">
+      <c r="R8" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="S8" s="30" t="s">
+      <c r="S8" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="T8" s="30" t="s">
+      <c r="T8" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="U8" s="30" t="s">
+      <c r="U8" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="V8" s="30" t="s">
+      <c r="V8" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="W8" s="30" t="s">
+      <c r="W8" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="X8" s="30" t="s">
+      <c r="X8" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="Y8" s="30" t="s">
+      <c r="Y8" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="Z8" s="30" t="s">
+      <c r="Z8" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="AA8" s="28" t="s">
+      <c r="AA8" s="21" t="s">
         <v>583</v>
       </c>
       <c r="AB8" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AC8" s="12"/>
       <c r="AD8" s="12" t="s">
@@ -3165,74 +3167,74 @@
       <c r="E9" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="O9" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="Q9" s="30" t="s">
+      <c r="Q9" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="R9" s="30" t="s">
+      <c r="R9" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="S9" s="30" t="s">
+      <c r="S9" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="T9" s="30" t="s">
+      <c r="T9" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="U9" s="30" t="s">
+      <c r="U9" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="V9" s="30" t="s">
+      <c r="V9" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="W9" s="30" t="s">
+      <c r="W9" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="X9" s="30" t="s">
+      <c r="X9" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="Y9" s="30" t="s">
+      <c r="Y9" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="Z9" s="30" t="s">
+      <c r="Z9" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="AA9" s="28" t="s">
+      <c r="AA9" s="21" t="s">
         <v>584</v>
       </c>
       <c r="AB9" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AC9" s="12"/>
       <c r="AD9" s="12" t="s">
@@ -3270,74 +3272,74 @@
       <c r="E10" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="L10" s="21" t="s">
         <v>534</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="N10" s="28" t="s">
+      <c r="N10" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="O10" s="30" t="s">
+      <c r="O10" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="P10" s="30" t="s">
+      <c r="P10" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="Q10" s="30" t="s">
+      <c r="Q10" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="R10" s="30" t="s">
+      <c r="R10" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="S10" s="30" t="s">
+      <c r="S10" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="T10" s="30" t="s">
+      <c r="T10" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="U10" s="30" t="s">
+      <c r="U10" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="V10" s="30" t="s">
+      <c r="V10" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="W10" s="30" t="s">
+      <c r="W10" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="X10" s="30" t="s">
+      <c r="X10" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="Y10" s="30" t="s">
+      <c r="Y10" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="Z10" s="30" t="s">
+      <c r="Z10" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="AA10" s="28" t="s">
+      <c r="AA10" s="21" t="s">
         <v>585</v>
       </c>
       <c r="AB10" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AC10" s="12"/>
       <c r="AD10" s="12" t="s">
@@ -3375,74 +3377,74 @@
       <c r="E11" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="21" t="s">
         <v>501</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="N11" s="28" t="s">
+      <c r="N11" s="21" t="s">
         <v>569</v>
       </c>
-      <c r="O11" s="30" t="s">
+      <c r="O11" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="Q11" s="30" t="s">
+      <c r="Q11" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="R11" s="30" t="s">
+      <c r="R11" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="S11" s="30" t="s">
+      <c r="S11" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="T11" s="30" t="s">
+      <c r="T11" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="U11" s="30" t="s">
+      <c r="U11" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="V11" s="30" t="s">
+      <c r="V11" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="W11" s="30" t="s">
+      <c r="W11" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="X11" s="30" t="s">
+      <c r="X11" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="Y11" s="30" t="s">
+      <c r="Y11" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="Z11" s="30" t="s">
+      <c r="Z11" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="AA11" s="28" t="s">
+      <c r="AA11" s="21" t="s">
         <v>586</v>
       </c>
       <c r="AB11" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AC11" s="12"/>
       <c r="AD11" s="12" t="s">
@@ -3480,74 +3482,74 @@
       <c r="E12" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="21" t="s">
         <v>519</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="21" t="s">
         <v>536</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="21" t="s">
         <v>570</v>
       </c>
-      <c r="O12" s="30" t="s">
+      <c r="O12" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="P12" s="30" t="s">
+      <c r="P12" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="Q12" s="30" t="s">
+      <c r="Q12" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="R12" s="30" t="s">
+      <c r="R12" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="S12" s="30" t="s">
+      <c r="S12" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="T12" s="30" t="s">
+      <c r="T12" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="U12" s="30" t="s">
+      <c r="U12" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="V12" s="30" t="s">
+      <c r="V12" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="W12" s="30" t="s">
+      <c r="W12" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="X12" s="30" t="s">
+      <c r="X12" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="Y12" s="30" t="s">
+      <c r="Y12" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="Z12" s="30" t="s">
+      <c r="Z12" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="AA12" s="28" t="s">
+      <c r="AA12" s="21" t="s">
         <v>587</v>
       </c>
       <c r="AB12" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AC12" s="12"/>
       <c r="AD12" s="12" t="s">
@@ -3585,74 +3587,74 @@
       <c r="E13" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="23" t="s">
         <v>520</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="23" t="s">
         <v>554</v>
       </c>
-      <c r="N13" s="30" t="s">
+      <c r="N13" s="23" t="s">
         <v>571</v>
       </c>
-      <c r="O13" s="30" t="s">
+      <c r="O13" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="P13" s="30" t="s">
+      <c r="P13" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="Q13" s="30" t="s">
+      <c r="Q13" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="R13" s="30" t="s">
+      <c r="R13" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="S13" s="30" t="s">
+      <c r="S13" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="T13" s="30" t="s">
+      <c r="T13" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="U13" s="30" t="s">
+      <c r="U13" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="V13" s="30" t="s">
+      <c r="V13" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="W13" s="30" t="s">
+      <c r="W13" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="X13" s="30" t="s">
+      <c r="X13" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="Y13" s="30" t="s">
+      <c r="Y13" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="Z13" s="30" t="s">
+      <c r="Z13" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="AA13" s="30" t="s">
+      <c r="AA13" s="23" t="s">
         <v>588</v>
       </c>
       <c r="AB13" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AC13" s="12"/>
       <c r="AD13" s="12" t="s">
@@ -3690,74 +3692,74 @@
       <c r="E14" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="23" t="s">
         <v>521</v>
       </c>
-      <c r="L14" s="30" t="s">
+      <c r="L14" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="M14" s="30" t="s">
+      <c r="M14" s="23" t="s">
         <v>555</v>
       </c>
-      <c r="N14" s="30" t="s">
+      <c r="N14" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="O14" s="30" t="s">
+      <c r="O14" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="P14" s="30" t="s">
+      <c r="P14" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="Q14" s="30" t="s">
+      <c r="Q14" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="R14" s="30" t="s">
+      <c r="R14" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="S14" s="30" t="s">
+      <c r="S14" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="T14" s="30" t="s">
+      <c r="T14" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="U14" s="30" t="s">
+      <c r="U14" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="V14" s="30" t="s">
+      <c r="V14" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="W14" s="30" t="s">
+      <c r="W14" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="X14" s="30" t="s">
+      <c r="X14" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="Y14" s="30" t="s">
+      <c r="Y14" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="Z14" s="30" t="s">
+      <c r="Z14" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="AA14" s="30" t="s">
+      <c r="AA14" s="23" t="s">
         <v>589</v>
       </c>
       <c r="AB14" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AC14" s="12"/>
       <c r="AD14" s="12" t="s">
@@ -3795,74 +3797,74 @@
       <c r="E15" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="J15" s="23" t="s">
         <v>505</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="L15" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="M15" s="30" t="s">
+      <c r="M15" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="N15" s="23" t="s">
         <v>573</v>
       </c>
-      <c r="O15" s="30" t="s">
+      <c r="O15" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="P15" s="30" t="s">
+      <c r="P15" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="Q15" s="30" t="s">
+      <c r="Q15" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="R15" s="30" t="s">
+      <c r="R15" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="S15" s="30" t="s">
+      <c r="S15" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="T15" s="30" t="s">
+      <c r="T15" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="U15" s="30" t="s">
+      <c r="U15" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="V15" s="30" t="s">
+      <c r="V15" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="W15" s="30" t="s">
+      <c r="W15" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="X15" s="30" t="s">
+      <c r="X15" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="Y15" s="30" t="s">
+      <c r="Y15" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="Z15" s="30" t="s">
+      <c r="Z15" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="AA15" s="30" t="s">
+      <c r="AA15" s="23" t="s">
         <v>590</v>
       </c>
       <c r="AB15" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AC15" s="12"/>
       <c r="AD15" s="12" t="s">
@@ -3900,74 +3902,74 @@
       <c r="E16" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="23" t="s">
         <v>489</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="L16" s="30" t="s">
+      <c r="L16" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="M16" s="30" t="s">
+      <c r="M16" s="23" t="s">
         <v>557</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="N16" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="O16" s="30" t="s">
+      <c r="O16" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="P16" s="30" t="s">
+      <c r="P16" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="Q16" s="30" t="s">
+      <c r="Q16" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="R16" s="30" t="s">
+      <c r="R16" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="S16" s="30" t="s">
+      <c r="S16" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="T16" s="30" t="s">
+      <c r="T16" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="U16" s="30" t="s">
+      <c r="U16" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="V16" s="30" t="s">
+      <c r="V16" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="W16" s="30" t="s">
+      <c r="W16" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="X16" s="30" t="s">
+      <c r="X16" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="Y16" s="30" t="s">
+      <c r="Y16" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="Z16" s="30" t="s">
+      <c r="Z16" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="AA16" s="30" t="s">
+      <c r="AA16" s="23" t="s">
         <v>591</v>
       </c>
       <c r="AB16" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AC16" s="12"/>
       <c r="AD16" s="12" t="s">
@@ -4005,74 +4007,74 @@
       <c r="E17" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="L17" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="23" t="s">
         <v>558</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="N17" s="23" t="s">
         <v>575</v>
       </c>
-      <c r="O17" s="30" t="s">
+      <c r="O17" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="P17" s="30" t="s">
+      <c r="P17" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="Q17" s="30" t="s">
+      <c r="Q17" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="R17" s="30" t="s">
+      <c r="R17" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="S17" s="30" t="s">
+      <c r="S17" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="T17" s="30" t="s">
+      <c r="T17" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="U17" s="30" t="s">
+      <c r="U17" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="V17" s="30" t="s">
+      <c r="V17" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="W17" s="30" t="s">
+      <c r="W17" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="X17" s="30" t="s">
+      <c r="X17" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="Y17" s="30" t="s">
+      <c r="Y17" s="23" t="s">
         <v>353</v>
       </c>
-      <c r="Z17" s="30" t="s">
+      <c r="Z17" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="AA17" s="30" t="s">
+      <c r="AA17" s="23" t="s">
         <v>592</v>
       </c>
       <c r="AB17" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AC17" s="12"/>
       <c r="AD17" s="12" t="s">
@@ -4110,74 +4112,74 @@
       <c r="E18" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="23" t="s">
         <v>471</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="M18" s="30" t="s">
+      <c r="M18" s="23" t="s">
         <v>559</v>
       </c>
-      <c r="N18" s="30" t="s">
+      <c r="N18" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="O18" s="30" t="s">
+      <c r="O18" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="P18" s="30" t="s">
+      <c r="P18" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="Q18" s="30" t="s">
+      <c r="Q18" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="R18" s="30" t="s">
+      <c r="R18" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="S18" s="30" t="s">
+      <c r="S18" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="T18" s="30" t="s">
+      <c r="T18" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="U18" s="30" t="s">
+      <c r="U18" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="V18" s="30" t="s">
+      <c r="V18" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="W18" s="30" t="s">
+      <c r="W18" s="23" t="s">
         <v>375</v>
       </c>
-      <c r="X18" s="30" t="s">
+      <c r="X18" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="Y18" s="30" t="s">
+      <c r="Y18" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="Z18" s="30" t="s">
+      <c r="Z18" s="23" t="s">
         <v>378</v>
       </c>
-      <c r="AA18" s="30" t="s">
+      <c r="AA18" s="23" t="s">
         <v>593</v>
       </c>
       <c r="AB18" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AC18" s="12"/>
       <c r="AD18" s="12" t="s">
@@ -4215,74 +4217,74 @@
       <c r="E19" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="23" t="s">
         <v>389</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="23" t="s">
         <v>492</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="23" t="s">
         <v>509</v>
       </c>
-      <c r="K19" s="30" t="s">
+      <c r="K19" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="M19" s="30" t="s">
+      <c r="M19" s="23" t="s">
         <v>560</v>
       </c>
-      <c r="N19" s="30" t="s">
+      <c r="N19" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="O19" s="30" t="s">
+      <c r="O19" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="P19" s="30" t="s">
+      <c r="P19" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="Q19" s="30" t="s">
+      <c r="Q19" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="R19" s="30" t="s">
+      <c r="R19" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="S19" s="30" t="s">
+      <c r="S19" s="23" t="s">
         <v>395</v>
       </c>
-      <c r="T19" s="30" t="s">
+      <c r="T19" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="U19" s="30" t="s">
+      <c r="U19" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="V19" s="30" t="s">
+      <c r="V19" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="W19" s="30" t="s">
+      <c r="W19" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="X19" s="30" t="s">
+      <c r="X19" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="Y19" s="30" t="s">
+      <c r="Y19" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="Z19" s="30" t="s">
+      <c r="Z19" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="AA19" s="30" t="s">
+      <c r="AA19" s="23" t="s">
         <v>594</v>
       </c>
       <c r="AB19" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AC19" s="12"/>
       <c r="AD19" s="12" t="s">
@@ -4305,10 +4307,10 @@
       </c>
     </row>
     <row r="20" spans="1:35" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="27" t="s">
         <v>409</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="13">
         <f>SUM(C4:C19)</f>
         <v>0</v>
@@ -4321,91 +4323,91 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N20" s="31">
+      <c r="N20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O20" s="31">
+      <c r="O20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20" s="31">
+      <c r="P20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="Q20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R20" s="31">
+      <c r="R20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S20" s="31">
+      <c r="S20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T20" s="31">
+      <c r="T20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U20" s="31">
+      <c r="U20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V20" s="31">
+      <c r="V20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W20" s="31">
+      <c r="W20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X20" s="31">
+      <c r="X20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="31">
+      <c r="Y20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="31">
+      <c r="Z20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="31">
+      <c r="AA20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4449,74 +4451,74 @@
       <c r="E21" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="L21" s="30" t="s">
+      <c r="L21" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="M21" s="30" t="s">
+      <c r="M21" s="23" t="s">
         <v>561</v>
       </c>
-      <c r="N21" s="30" t="s">
+      <c r="N21" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="O21" s="30" t="s">
+      <c r="O21" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="P21" s="30" t="s">
+      <c r="P21" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="Q21" s="30" t="s">
+      <c r="Q21" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="R21" s="30" t="s">
+      <c r="R21" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="S21" s="30" t="s">
+      <c r="S21" s="23" t="s">
         <v>420</v>
       </c>
-      <c r="T21" s="30" t="s">
+      <c r="T21" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="U21" s="30" t="s">
+      <c r="U21" s="23" t="s">
         <v>422</v>
       </c>
-      <c r="V21" s="30" t="s">
+      <c r="V21" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="W21" s="30" t="s">
+      <c r="W21" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="X21" s="30" t="s">
+      <c r="X21" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="Y21" s="30" t="s">
+      <c r="Y21" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="Z21" s="30" t="s">
+      <c r="Z21" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="AA21" s="30" t="s">
+      <c r="AA21" s="23" t="s">
         <v>595</v>
       </c>
       <c r="AB21" s="17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12" t="s">
@@ -4539,10 +4541,10 @@
       </c>
     </row>
     <row r="22" spans="1:35" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="13">
         <f t="shared" ref="C22:AB22" si="2">SUM(C21:C21)</f>
         <v>0</v>
@@ -4555,91 +4557,91 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="31">
+      <c r="N22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="31">
+      <c r="O22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" s="31">
+      <c r="P22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="Q22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="31">
+      <c r="R22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S22" s="31">
+      <c r="S22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T22" s="31">
+      <c r="T22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U22" s="31">
+      <c r="U22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V22" s="31">
+      <c r="V22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W22" s="31">
+      <c r="W22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X22" s="31">
+      <c r="X22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="31">
+      <c r="Y22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="31">
+      <c r="Z22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="31">
+      <c r="AA22" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>

--- a/ReportTemplate/ReportPost.xlsx
+++ b/ReportTemplate/ReportPost.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sydeny\Desktop\V201706102218B004_工资报表系统_正式版\V201706102218B004_工资报表系统_正式版\ReportTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#\Project\PayrollReport\ReportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="795">
   <si>
     <t>岗级工资总额统计报表</t>
   </si>
@@ -1377,6 +1377,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>PositionName</t>
@@ -1842,6 +1843,600 @@
   <si>
     <t>&amp;=&amp;=Sum(D{r}:Z{r})-AA{r}</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.PositionName</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.PostRankName</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.AlreadyCount</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.PostWage</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.MonthlyPerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.PerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.SeniorityWage</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.TechnicalAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.ProfessionalAllowances</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.QuasiVehicleAllowances</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.StaffServiceAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.SmileStar</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.JobReplacement</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.PluggingIncome</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.PostAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.OvertimePay</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.DustCharge</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.NightAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.HardshipAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.TollStationService</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.ReplacementPay</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.HighSubsidies</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.CommunicationSubsidy</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.Reserve1</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.Reserve2</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.Other</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.Debit</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.NotCount</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.ReuseCount</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.NotName</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.ReuseName</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.NaturalYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=TunnelStationTechnician.AnnualYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.PositionName</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.PostRankName</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.AlreadyCount</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.PostWage</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.MonthlyPerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.PerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.SeniorityWage</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.TechnicalAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.ProfessionalAllowances</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.QuasiVehicleAllowances</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.StaffServiceAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.SmileStar</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.JobReplacement</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.PluggingIncome</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.PostAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.OvertimePay</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.DustCharge</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.NightAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.HardshipAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.TollStationService</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.ReplacementPay</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.HighSubsidies</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.CommunicationSubsidy</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.Reserve1</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.Reserve2</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.Other</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.Debit</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.NotCount</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.ReuseCount</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.NotName</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.ReuseName</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.NaturalYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationMaster.AnnualYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.PositionName</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.PostRankName</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.AlreadyCount</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.PostWage</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.MonthlyPerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.PerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.SeniorityWage</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.TechnicalAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.ProfessionalAllowances</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.QuasiVehicleAllowances</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.StaffServiceAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.SmileStar</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.JobReplacement</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.PluggingIncome</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.PostAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.OvertimePay</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.DustCharge</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.NightAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.HardshipAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.TollStationService</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.ReplacementPay</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.HighSubsidies</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.CommunicationSubsidy</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.Reserve1</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.Reserve2</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.Other</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.Debit</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.NotCount</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.ReuseCount</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.NotName</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.ReuseName</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.NaturalYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=TollStationDeputyMaster.AnnualYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.PositionName</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.PostRankName</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.AlreadyCount</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.PostWage</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.MonthlyPerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.PerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.SeniorityWage</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.TechnicalAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.ProfessionalAllowances</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.QuasiVehicleAllowances</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.StaffServiceAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.SmileStar</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.JobReplacement</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.PluggingIncome</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.PostAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.OvertimePay</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.DustCharge</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.NightAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.HardshipAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.TollStationService</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.ReplacementPay</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.HighSubsidies</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.CommunicationSubsidy</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.Reserve1</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.Reserve2</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.Other</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.Debit</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.NotCount</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.ReuseCount</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.NotName</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.ReuseName</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.NaturalYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=TicketClerk.AnnualYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.PositionName</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.PostRankName</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.AlreadyCount</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.PostWage</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.MonthlyPerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.PerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.SeniorityWage</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.TechnicalAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.ProfessionalAllowances</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.QuasiVehicleAllowances</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.StaffServiceAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.SmileStar</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.JobReplacement</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.PluggingIncome</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.PostAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.OvertimePay</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.DustCharge</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.NightAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.HardshipAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.TollStationService</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.ReplacementPay</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.HighSubsidies</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.CommunicationSubsidy</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.Reserve1</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.Reserve2</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.Other</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.Debit</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.NotCount</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.ReuseCount</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.NotName</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.ReuseName</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.NaturalYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=Inspector.AnnualYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.PositionName</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.PostRankName</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.AlreadyCount</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.PostWage</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.MonthlyPerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.PerformancePay</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.SeniorityWage</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.TechnicalAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.ProfessionalAllowances</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.QuasiVehicleAllowances</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.StaffServiceAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.SmileStar</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.JobReplacement</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.PluggingIncome</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.PostAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.OvertimePay</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.DustCharge</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.NightAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.HardshipAllowance</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.TollStationService</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.ReplacementPay</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.HighSubsidies</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.CommunicationSubsidy</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.Reserve1</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.Reserve2</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.Other</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.Debit</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.NotCount</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.ReuseCount</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.NotName</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.ReuseName</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.NaturalYearEndPerformance</t>
+  </si>
+  <si>
+    <t>&amp;=TollCollector.AnnualYearEndPerformance</t>
   </si>
 </sst>
 </file>
@@ -1857,17 +2452,20 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1879,24 +2477,28 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="6"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1907,6 +2509,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1986,7 +2589,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2068,6 +2671,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2081,6 +2690,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2406,11 +3021,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI42"/>
+  <dimension ref="A1:AI48"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB8" sqref="AB8"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2419,7 +3034,7 @@
     <col min="2" max="2" width="21.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="15.375" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12" style="6" customWidth="1"/>
     <col min="6" max="6" width="8.875" style="19" customWidth="1"/>
     <col min="7" max="7" width="6.625" style="19" customWidth="1"/>
     <col min="8" max="8" width="6.875" style="19" customWidth="1"/>
@@ -2450,43 +3065,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
     </row>
     <row r="2" spans="1:35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8"/>
@@ -2518,10 +3133,10 @@
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
       <c r="AA2" s="18"/>
-      <c r="AB2" s="29" t="s">
+      <c r="AB2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="29"/>
+      <c r="AC2" s="31"/>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
@@ -2530,10 +3145,10 @@
       <c r="AI2" s="8"/>
     </row>
     <row r="3" spans="1:35" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2635,10 +3250,10 @@
       </c>
     </row>
     <row r="4" spans="1:35" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
@@ -2738,10 +3353,10 @@
       </c>
     </row>
     <row r="5" spans="1:35" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="16" t="s">
         <v>444</v>
       </c>
@@ -2841,10 +3456,10 @@
       </c>
     </row>
     <row r="6" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="27" t="s">
         <v>445</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="12" t="s">
         <v>75</v>
       </c>
@@ -2944,10 +3559,10 @@
       </c>
     </row>
     <row r="7" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="12" t="s">
         <v>98</v>
       </c>
@@ -3466,7 +4081,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>451</v>
       </c>
@@ -3571,1253 +4186,1733 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>466</v>
+    <row r="13" spans="1:35" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>633</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>635</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>245</v>
+        <v>636</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>520</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>537</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>554</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>571</v>
+        <v>637</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>643</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>247</v>
+        <v>644</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>248</v>
+        <v>645</v>
       </c>
       <c r="Q13" s="23" t="s">
-        <v>249</v>
+        <v>646</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>250</v>
+        <v>647</v>
       </c>
       <c r="S13" s="23" t="s">
-        <v>251</v>
+        <v>648</v>
       </c>
       <c r="T13" s="23" t="s">
-        <v>252</v>
+        <v>649</v>
       </c>
       <c r="U13" s="23" t="s">
-        <v>253</v>
+        <v>650</v>
       </c>
       <c r="V13" s="23" t="s">
-        <v>254</v>
+        <v>651</v>
       </c>
       <c r="W13" s="23" t="s">
-        <v>255</v>
+        <v>652</v>
       </c>
       <c r="X13" s="23" t="s">
-        <v>256</v>
+        <v>653</v>
       </c>
       <c r="Y13" s="23" t="s">
-        <v>257</v>
+        <v>654</v>
       </c>
       <c r="Z13" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA13" s="23" t="s">
-        <v>588</v>
-      </c>
-      <c r="AB13" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="AA13" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="AB13" s="34" t="s">
         <v>596</v>
       </c>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="AE13" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF13" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="AG13" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="AH13" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="AI13" s="12" t="s">
-        <v>264</v>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23" t="s">
+        <v>657</v>
+      </c>
+      <c r="AE13" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="AF13" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="AG13" s="23" t="s">
+        <v>660</v>
+      </c>
+      <c r="AH13" s="23" t="s">
+        <v>661</v>
+      </c>
+      <c r="AI13" s="23" t="s">
+        <v>662</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>467</v>
+    <row r="14" spans="1:35" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>666</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>668</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>269</v>
+        <v>669</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>487</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>521</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>555</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>572</v>
+        <v>670</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>676</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>271</v>
+        <v>677</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>272</v>
+        <v>678</v>
       </c>
       <c r="Q14" s="23" t="s">
-        <v>273</v>
+        <v>679</v>
       </c>
       <c r="R14" s="23" t="s">
-        <v>274</v>
+        <v>680</v>
       </c>
       <c r="S14" s="23" t="s">
-        <v>275</v>
+        <v>681</v>
       </c>
       <c r="T14" s="23" t="s">
-        <v>276</v>
+        <v>682</v>
       </c>
       <c r="U14" s="23" t="s">
-        <v>277</v>
+        <v>683</v>
       </c>
       <c r="V14" s="23" t="s">
-        <v>278</v>
+        <v>684</v>
       </c>
       <c r="W14" s="23" t="s">
-        <v>279</v>
+        <v>685</v>
       </c>
       <c r="X14" s="23" t="s">
-        <v>280</v>
+        <v>686</v>
       </c>
       <c r="Y14" s="23" t="s">
-        <v>281</v>
+        <v>687</v>
       </c>
       <c r="Z14" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA14" s="23" t="s">
-        <v>589</v>
-      </c>
-      <c r="AB14" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="AA14" s="21" t="s">
+        <v>689</v>
+      </c>
+      <c r="AB14" s="34" t="s">
         <v>596</v>
       </c>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="AE14" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="AF14" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="AG14" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="AH14" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="AI14" s="12" t="s">
-        <v>288</v>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23" t="s">
+        <v>690</v>
+      </c>
+      <c r="AE14" s="23" t="s">
+        <v>691</v>
+      </c>
+      <c r="AF14" s="23" t="s">
+        <v>692</v>
+      </c>
+      <c r="AG14" s="23" t="s">
+        <v>693</v>
+      </c>
+      <c r="AH14" s="23" t="s">
+        <v>694</v>
+      </c>
+      <c r="AI14" s="23" t="s">
+        <v>695</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>468</v>
+    <row r="15" spans="1:35" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>697</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>699</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>700</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>701</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>293</v>
+        <v>702</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>488</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>505</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>539</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>556</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>573</v>
+        <v>703</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>705</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>706</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>708</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>709</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>295</v>
+        <v>710</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>296</v>
+        <v>711</v>
       </c>
       <c r="Q15" s="23" t="s">
-        <v>297</v>
+        <v>712</v>
       </c>
       <c r="R15" s="23" t="s">
-        <v>298</v>
+        <v>713</v>
       </c>
       <c r="S15" s="23" t="s">
-        <v>299</v>
+        <v>714</v>
       </c>
       <c r="T15" s="23" t="s">
-        <v>300</v>
+        <v>715</v>
       </c>
       <c r="U15" s="23" t="s">
-        <v>301</v>
+        <v>716</v>
       </c>
       <c r="V15" s="23" t="s">
-        <v>302</v>
+        <v>717</v>
       </c>
       <c r="W15" s="23" t="s">
-        <v>303</v>
+        <v>718</v>
       </c>
       <c r="X15" s="23" t="s">
-        <v>304</v>
+        <v>719</v>
       </c>
       <c r="Y15" s="23" t="s">
-        <v>305</v>
+        <v>720</v>
       </c>
       <c r="Z15" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA15" s="23" t="s">
-        <v>590</v>
-      </c>
-      <c r="AB15" s="17" t="s">
+        <v>721</v>
+      </c>
+      <c r="AA15" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB15" s="34" t="s">
         <v>596</v>
       </c>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE15" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF15" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="AG15" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="AH15" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="AI15" s="12" t="s">
-        <v>312</v>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23" t="s">
+        <v>723</v>
+      </c>
+      <c r="AE15" s="23" t="s">
+        <v>724</v>
+      </c>
+      <c r="AF15" s="23" t="s">
+        <v>725</v>
+      </c>
+      <c r="AG15" s="23" t="s">
+        <v>726</v>
+      </c>
+      <c r="AH15" s="23" t="s">
+        <v>727</v>
+      </c>
+      <c r="AI15" s="23" t="s">
+        <v>728</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>469</v>
+    <row r="16" spans="1:35" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>730</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>731</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>732</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>733</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>734</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>317</v>
+        <v>735</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>506</v>
-      </c>
-      <c r="K16" s="23" t="s">
-        <v>523</v>
-      </c>
-      <c r="L16" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>557</v>
-      </c>
-      <c r="N16" s="23" t="s">
-        <v>574</v>
+        <v>736</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>737</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>738</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>742</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>319</v>
+        <v>743</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>320</v>
+        <v>744</v>
       </c>
       <c r="Q16" s="23" t="s">
-        <v>321</v>
+        <v>745</v>
       </c>
       <c r="R16" s="23" t="s">
-        <v>322</v>
+        <v>746</v>
       </c>
       <c r="S16" s="23" t="s">
-        <v>323</v>
+        <v>747</v>
       </c>
       <c r="T16" s="23" t="s">
-        <v>324</v>
+        <v>748</v>
       </c>
       <c r="U16" s="23" t="s">
-        <v>325</v>
+        <v>749</v>
       </c>
       <c r="V16" s="23" t="s">
-        <v>326</v>
+        <v>750</v>
       </c>
       <c r="W16" s="23" t="s">
-        <v>327</v>
+        <v>751</v>
       </c>
       <c r="X16" s="23" t="s">
-        <v>328</v>
+        <v>752</v>
       </c>
       <c r="Y16" s="23" t="s">
-        <v>329</v>
+        <v>753</v>
       </c>
       <c r="Z16" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA16" s="23" t="s">
-        <v>591</v>
-      </c>
-      <c r="AB16" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="AA16" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="AB16" s="34" t="s">
         <v>596</v>
       </c>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="AE16" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="AF16" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="AG16" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="AH16" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="AI16" s="12" t="s">
-        <v>336</v>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23" t="s">
+        <v>756</v>
+      </c>
+      <c r="AE16" s="23" t="s">
+        <v>757</v>
+      </c>
+      <c r="AF16" s="23" t="s">
+        <v>758</v>
+      </c>
+      <c r="AG16" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="AH16" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="AI16" s="23" t="s">
+        <v>761</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>470</v>
+    <row r="17" spans="1:35" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>763</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>764</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>765</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>766</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>767</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>341</v>
+        <v>768</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>490</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="K17" s="23" t="s">
-        <v>524</v>
-      </c>
-      <c r="L17" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>558</v>
-      </c>
-      <c r="N17" s="23" t="s">
-        <v>575</v>
+        <v>769</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="N17" s="21" t="s">
+        <v>775</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>343</v>
+        <v>776</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>344</v>
+        <v>777</v>
       </c>
       <c r="Q17" s="23" t="s">
-        <v>345</v>
+        <v>778</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>346</v>
+        <v>779</v>
       </c>
       <c r="S17" s="23" t="s">
-        <v>347</v>
+        <v>780</v>
       </c>
       <c r="T17" s="23" t="s">
-        <v>348</v>
+        <v>781</v>
       </c>
       <c r="U17" s="23" t="s">
-        <v>349</v>
+        <v>782</v>
       </c>
       <c r="V17" s="23" t="s">
-        <v>350</v>
+        <v>783</v>
       </c>
       <c r="W17" s="23" t="s">
-        <v>351</v>
+        <v>784</v>
       </c>
       <c r="X17" s="23" t="s">
-        <v>352</v>
+        <v>785</v>
       </c>
       <c r="Y17" s="23" t="s">
-        <v>353</v>
+        <v>786</v>
       </c>
       <c r="Z17" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA17" s="23" t="s">
-        <v>592</v>
-      </c>
-      <c r="AB17" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="AA17" s="21" t="s">
+        <v>788</v>
+      </c>
+      <c r="AB17" s="34" t="s">
         <v>596</v>
       </c>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="AE17" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="AF17" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="AG17" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="AH17" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="AI17" s="12" t="s">
-        <v>360</v>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE17" s="23" t="s">
+        <v>790</v>
+      </c>
+      <c r="AF17" s="23" t="s">
+        <v>791</v>
+      </c>
+      <c r="AG17" s="23" t="s">
+        <v>792</v>
+      </c>
+      <c r="AH17" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="AI17" s="23" t="s">
+        <v>794</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>471</v>
+    <row r="18" spans="1:35" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>601</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>602</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>365</v>
+        <v>603</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>491</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>559</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>576</v>
+        <v>604</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="N18" s="21" t="s">
+        <v>610</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>367</v>
+        <v>611</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>368</v>
+        <v>612</v>
       </c>
       <c r="Q18" s="23" t="s">
-        <v>369</v>
+        <v>613</v>
       </c>
       <c r="R18" s="23" t="s">
-        <v>370</v>
+        <v>614</v>
       </c>
       <c r="S18" s="23" t="s">
-        <v>371</v>
+        <v>615</v>
       </c>
       <c r="T18" s="23" t="s">
-        <v>372</v>
+        <v>616</v>
       </c>
       <c r="U18" s="23" t="s">
-        <v>373</v>
+        <v>617</v>
       </c>
       <c r="V18" s="23" t="s">
-        <v>374</v>
+        <v>618</v>
       </c>
       <c r="W18" s="23" t="s">
-        <v>375</v>
+        <v>619</v>
       </c>
       <c r="X18" s="23" t="s">
-        <v>376</v>
+        <v>620</v>
       </c>
       <c r="Y18" s="23" t="s">
-        <v>377</v>
+        <v>621</v>
       </c>
       <c r="Z18" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="AA18" s="23" t="s">
-        <v>593</v>
+        <v>622</v>
+      </c>
+      <c r="AA18" s="21" t="s">
+        <v>623</v>
       </c>
       <c r="AB18" s="17" t="s">
         <v>596</v>
       </c>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AE18" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="AF18" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="AG18" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="AH18" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="AI18" s="12" t="s">
-        <v>384</v>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE18" s="26" t="s">
+        <v>625</v>
+      </c>
+      <c r="AF18" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="AG18" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="AH18" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="AI18" s="26" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="19" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>385</v>
+        <v>241</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>386</v>
+        <v>242</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>387</v>
+        <v>243</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>388</v>
+        <v>244</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>389</v>
+        <v>245</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>390</v>
+        <v>246</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="N19" s="23" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="O19" s="23" t="s">
-        <v>391</v>
+        <v>247</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>392</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="23" t="s">
-        <v>393</v>
+        <v>249</v>
       </c>
       <c r="R19" s="23" t="s">
-        <v>394</v>
+        <v>250</v>
       </c>
       <c r="S19" s="23" t="s">
-        <v>395</v>
+        <v>251</v>
       </c>
       <c r="T19" s="23" t="s">
-        <v>396</v>
+        <v>252</v>
       </c>
       <c r="U19" s="23" t="s">
-        <v>397</v>
+        <v>253</v>
       </c>
       <c r="V19" s="23" t="s">
-        <v>398</v>
+        <v>254</v>
       </c>
       <c r="W19" s="23" t="s">
-        <v>399</v>
+        <v>255</v>
       </c>
       <c r="X19" s="23" t="s">
-        <v>400</v>
+        <v>256</v>
       </c>
       <c r="Y19" s="23" t="s">
-        <v>401</v>
+        <v>257</v>
       </c>
       <c r="Z19" s="23" t="s">
-        <v>402</v>
+        <v>258</v>
       </c>
       <c r="AA19" s="23" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="AB19" s="17" t="s">
         <v>596</v>
       </c>
       <c r="AC19" s="12"/>
       <c r="AD19" s="12" t="s">
-        <v>403</v>
+        <v>259</v>
       </c>
       <c r="AE19" s="12" t="s">
-        <v>404</v>
+        <v>260</v>
       </c>
       <c r="AF19" s="12" t="s">
-        <v>405</v>
+        <v>261</v>
       </c>
       <c r="AG19" s="12" t="s">
-        <v>406</v>
+        <v>262</v>
       </c>
       <c r="AH19" s="12" t="s">
-        <v>407</v>
+        <v>263</v>
       </c>
       <c r="AI19" s="12" t="s">
-        <v>408</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:35" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="13">
-        <f>SUM(C4:C19)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="13">
-        <f t="shared" ref="D20:AA20" si="0">SUM(D4:D19)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="15">
-        <f>SUM(AB4:AB19)</f>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13">
-        <f>SUM(AD4:AD19)</f>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="13">
-        <f t="shared" ref="AE20:AI20" si="1">SUM(AE4:AE19)</f>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    <row r="20" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>467</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>572</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="P20" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="R20" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="S20" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="T20" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="U20" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="V20" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="W20" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="X20" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y20" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z20" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA20" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB20" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE20" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF20" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG20" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH20" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI20" s="12" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>410</v>
+        <v>289</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>411</v>
+        <v>290</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>412</v>
+        <v>291</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>413</v>
+        <v>292</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>414</v>
+        <v>293</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>415</v>
+        <v>294</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="N21" s="23" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>416</v>
+        <v>295</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>417</v>
+        <v>296</v>
       </c>
       <c r="Q21" s="23" t="s">
-        <v>418</v>
+        <v>297</v>
       </c>
       <c r="R21" s="23" t="s">
-        <v>419</v>
+        <v>298</v>
       </c>
       <c r="S21" s="23" t="s">
-        <v>420</v>
+        <v>299</v>
       </c>
       <c r="T21" s="23" t="s">
-        <v>421</v>
+        <v>300</v>
       </c>
       <c r="U21" s="23" t="s">
-        <v>422</v>
+        <v>301</v>
       </c>
       <c r="V21" s="23" t="s">
-        <v>423</v>
+        <v>302</v>
       </c>
       <c r="W21" s="23" t="s">
-        <v>424</v>
+        <v>303</v>
       </c>
       <c r="X21" s="23" t="s">
-        <v>425</v>
+        <v>304</v>
       </c>
       <c r="Y21" s="23" t="s">
-        <v>426</v>
+        <v>305</v>
       </c>
       <c r="Z21" s="23" t="s">
-        <v>427</v>
+        <v>306</v>
       </c>
       <c r="AA21" s="23" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="AB21" s="17" t="s">
         <v>596</v>
       </c>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE21" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF21" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG21" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH21" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI21" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="S22" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="T22" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="U22" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="V22" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="W22" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="X22" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y22" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="Z22" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA22" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="AB22" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="AE22" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF22" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="AG22" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="AH22" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="AI22" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="R23" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="S23" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="T23" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="U23" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="V23" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="W23" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="X23" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y23" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z23" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA23" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB23" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE23" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF23" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG23" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH23" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI23" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q24" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="R24" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="S24" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="T24" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="U24" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="V24" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="W24" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="X24" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y24" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z24" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA24" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB24" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE24" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="AF24" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG24" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH24" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="AI24" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q25" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="R25" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="S25" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="T25" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="U25" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="V25" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="W25" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="X25" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y25" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z25" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA25" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="AB25" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE25" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="AF25" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="AG25" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="AH25" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="AI25" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="13">
+        <f>SUM(C4:C25)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="13">
+        <f t="shared" ref="D26:AA26" si="0">SUM(D4:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="15">
+        <f>SUM(AB4:AB25)</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13">
+        <f>SUM(AD4:AD25)</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="13">
+        <f t="shared" ref="AE26:AI26" si="1">SUM(AE4:AE25)</f>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="M27" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="N27" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q27" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="R27" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="S27" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="T27" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="U27" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="V27" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="W27" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="X27" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y27" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="Z27" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA27" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB27" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="AE21" s="12" t="s">
+      <c r="AE27" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="AF21" s="12" t="s">
+      <c r="AF27" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="AG21" s="12" t="s">
+      <c r="AG27" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="AH21" s="12" t="s">
+      <c r="AH27" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="AI21" s="12" t="s">
+      <c r="AI27" s="12" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="22" spans="1:35" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="27" t="s">
+    <row r="28" spans="1:35" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="13">
-        <f t="shared" ref="C22:AB22" si="2">SUM(C21:C21)</f>
+      <c r="B28" s="29"/>
+      <c r="C28" s="13">
+        <f t="shared" ref="C28:AB28" si="2">SUM(C27:C27)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D28" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E28" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M22" s="24">
+      <c r="M28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N22" s="24">
+      <c r="N28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="24">
+      <c r="O28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" s="24">
+      <c r="P28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="Q28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R22" s="24">
+      <c r="R28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S22" s="24">
+      <c r="S28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T22" s="24">
+      <c r="T28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U22" s="24">
+      <c r="U28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V22" s="24">
+      <c r="V28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W22" s="24">
+      <c r="W28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X22" s="24">
+      <c r="X28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="24">
+      <c r="Y28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="24">
+      <c r="Z28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="24">
+      <c r="AA28" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB22" s="15">
+      <c r="AB28" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13">
-        <f t="shared" ref="AD22:AI22" si="3">SUM(AD21:AD21)</f>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13">
+        <f t="shared" ref="AD28:AI28" si="3">SUM(AD27:AD27)</f>
         <v>0</v>
       </c>
-      <c r="AE22" s="13">
+      <c r="AE28" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13">
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI22" s="13">
+      <c r="AI28" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="14"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-    </row>
-    <row r="24" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="14"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="19"/>
-    </row>
-    <row r="25" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="14"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-      <c r="AA25" s="19"/>
-    </row>
-    <row r="26" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="14"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-      <c r="AA26" s="19"/>
-    </row>
-    <row r="27" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="14"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-    </row>
-    <row r="28" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="14"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-      <c r="AA28" s="19"/>
     </row>
     <row r="29" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="14"/>
@@ -5169,12 +6264,162 @@
       <c r="Z42" s="19"/>
       <c r="AA42" s="19"/>
     </row>
+    <row r="43" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="14"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+    </row>
+    <row r="44" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="14"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+    </row>
+    <row r="45" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="14"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="19"/>
+    </row>
+    <row r="46" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="14"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+    </row>
+    <row r="47" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="14"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+    </row>
+    <row r="48" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="14"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="A3:B3"/>

--- a/ReportTemplate/ReportPost.xlsx
+++ b/ReportTemplate/ReportPost.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#\Project\PayrollReport\ReportTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#\Project\PayrollReport\PayrollReport\MainUI\bin\Debug\ReportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2443,6 +2443,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2589,7 +2592,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2671,6 +2674,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2692,10 +2701,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3023,9 +3035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI48"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH27" sqref="AH27:AI27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3065,43 +3077,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
     </row>
     <row r="2" spans="1:35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8"/>
@@ -3133,10 +3145,10 @@
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
       <c r="AA2" s="18"/>
-      <c r="AB2" s="31" t="s">
+      <c r="AB2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="31"/>
+      <c r="AC2" s="33"/>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
@@ -3145,10 +3157,10 @@
       <c r="AI2" s="8"/>
     </row>
     <row r="3" spans="1:35" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
@@ -3250,10 +3262,10 @@
       </c>
     </row>
     <row r="4" spans="1:35" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
@@ -3353,10 +3365,10 @@
       </c>
     </row>
     <row r="5" spans="1:35" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="16" t="s">
         <v>444</v>
       </c>
@@ -3456,10 +3468,10 @@
       </c>
     </row>
     <row r="6" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="12" t="s">
         <v>75</v>
       </c>
@@ -3559,10 +3571,10 @@
       </c>
     </row>
     <row r="7" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="12" t="s">
         <v>98</v>
       </c>
@@ -3881,76 +3893,76 @@
       <c r="C10" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="37" t="s">
         <v>483</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="37" t="s">
         <v>500</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="37" t="s">
         <v>517</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="37" t="s">
         <v>534</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="37" t="s">
         <v>551</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="37" t="s">
         <v>568</v>
       </c>
-      <c r="O10" s="23" t="s">
+      <c r="O10" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="P10" s="23" t="s">
+      <c r="P10" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="Q10" s="23" t="s">
+      <c r="Q10" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="R10" s="23" t="s">
+      <c r="R10" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="S10" s="23" t="s">
+      <c r="S10" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="T10" s="23" t="s">
+      <c r="T10" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="U10" s="23" t="s">
+      <c r="U10" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="V10" s="23" t="s">
+      <c r="V10" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="W10" s="23" t="s">
+      <c r="W10" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="X10" s="23" t="s">
+      <c r="X10" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="Y10" s="23" t="s">
+      <c r="Y10" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="Z10" s="23" t="s">
+      <c r="Z10" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="AA10" s="21" t="s">
+      <c r="AA10" s="37" t="s">
         <v>585</v>
       </c>
       <c r="AB10" s="17" t="s">
@@ -3986,76 +3998,76 @@
       <c r="C11" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="37" t="s">
         <v>484</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="37" t="s">
         <v>501</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="37" t="s">
         <v>518</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="37" t="s">
         <v>535</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="37" t="s">
         <v>552</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="37" t="s">
         <v>569</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="O11" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="P11" s="23" t="s">
+      <c r="P11" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="Q11" s="23" t="s">
+      <c r="Q11" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="R11" s="23" t="s">
+      <c r="R11" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="S11" s="23" t="s">
+      <c r="S11" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="T11" s="23" t="s">
+      <c r="T11" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="U11" s="23" t="s">
+      <c r="U11" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="V11" s="23" t="s">
+      <c r="V11" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="W11" s="23" t="s">
+      <c r="W11" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="X11" s="23" t="s">
+      <c r="X11" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="Y11" s="23" t="s">
+      <c r="Y11" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="Z11" s="23" t="s">
+      <c r="Z11" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="AA11" s="21" t="s">
+      <c r="AA11" s="37" t="s">
         <v>586</v>
       </c>
       <c r="AB11" s="17" t="s">
@@ -4091,76 +4103,76 @@
       <c r="C12" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="37" t="s">
         <v>465</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="37" t="s">
         <v>502</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="37" t="s">
         <v>519</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="37" t="s">
         <v>536</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="37" t="s">
         <v>570</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="Q12" s="23" t="s">
+      <c r="Q12" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="R12" s="23" t="s">
+      <c r="R12" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="S12" s="23" t="s">
+      <c r="S12" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="T12" s="23" t="s">
+      <c r="T12" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="U12" s="23" t="s">
+      <c r="U12" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="V12" s="23" t="s">
+      <c r="V12" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="W12" s="23" t="s">
+      <c r="W12" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="X12" s="23" t="s">
+      <c r="X12" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="Y12" s="23" t="s">
+      <c r="Y12" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="Z12" s="23" t="s">
+      <c r="Z12" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="AA12" s="21" t="s">
+      <c r="AA12" s="37" t="s">
         <v>587</v>
       </c>
       <c r="AB12" s="17" t="s">
@@ -4186,7 +4198,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" s="28" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22" t="s">
         <v>630</v>
       </c>
@@ -4196,79 +4208,79 @@
       <c r="C13" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="38" t="s">
         <v>633</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="38" t="s">
         <v>634</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="37" t="s">
         <v>635</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="38" t="s">
         <v>636</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="38" t="s">
         <v>637</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="37" t="s">
         <v>638</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="37" t="s">
         <v>639</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="37" t="s">
         <v>640</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="37" t="s">
         <v>641</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="37" t="s">
         <v>643</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="O13" s="38" t="s">
         <v>644</v>
       </c>
-      <c r="P13" s="23" t="s">
+      <c r="P13" s="38" t="s">
         <v>645</v>
       </c>
-      <c r="Q13" s="23" t="s">
+      <c r="Q13" s="38" t="s">
         <v>646</v>
       </c>
-      <c r="R13" s="23" t="s">
+      <c r="R13" s="38" t="s">
         <v>647</v>
       </c>
-      <c r="S13" s="23" t="s">
+      <c r="S13" s="38" t="s">
         <v>648</v>
       </c>
-      <c r="T13" s="23" t="s">
+      <c r="T13" s="38" t="s">
         <v>649</v>
       </c>
-      <c r="U13" s="23" t="s">
+      <c r="U13" s="38" t="s">
         <v>650</v>
       </c>
-      <c r="V13" s="23" t="s">
+      <c r="V13" s="38" t="s">
         <v>651</v>
       </c>
-      <c r="W13" s="23" t="s">
+      <c r="W13" s="38" t="s">
         <v>652</v>
       </c>
-      <c r="X13" s="23" t="s">
+      <c r="X13" s="38" t="s">
         <v>653</v>
       </c>
-      <c r="Y13" s="23" t="s">
+      <c r="Y13" s="38" t="s">
         <v>654</v>
       </c>
-      <c r="Z13" s="23" t="s">
+      <c r="Z13" s="38" t="s">
         <v>655</v>
       </c>
-      <c r="AA13" s="21" t="s">
+      <c r="AA13" s="37" t="s">
         <v>656</v>
       </c>
-      <c r="AB13" s="34" t="s">
+      <c r="AB13" s="27" t="s">
         <v>596</v>
       </c>
       <c r="AC13" s="23"/>
@@ -4291,7 +4303,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" s="28" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="21" t="s">
         <v>663</v>
       </c>
@@ -4301,79 +4313,79 @@
       <c r="C14" s="23" t="s">
         <v>665</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="38" t="s">
         <v>666</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="38" t="s">
         <v>667</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="37" t="s">
         <v>668</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="38" t="s">
         <v>669</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="38" t="s">
         <v>670</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="37" t="s">
         <v>671</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="37" t="s">
         <v>672</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="37" t="s">
         <v>673</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="37" t="s">
         <v>674</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="37" t="s">
         <v>675</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="37" t="s">
         <v>676</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="O14" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="P14" s="23" t="s">
+      <c r="P14" s="38" t="s">
         <v>678</v>
       </c>
-      <c r="Q14" s="23" t="s">
+      <c r="Q14" s="38" t="s">
         <v>679</v>
       </c>
-      <c r="R14" s="23" t="s">
+      <c r="R14" s="38" t="s">
         <v>680</v>
       </c>
-      <c r="S14" s="23" t="s">
+      <c r="S14" s="38" t="s">
         <v>681</v>
       </c>
-      <c r="T14" s="23" t="s">
+      <c r="T14" s="38" t="s">
         <v>682</v>
       </c>
-      <c r="U14" s="23" t="s">
+      <c r="U14" s="38" t="s">
         <v>683</v>
       </c>
-      <c r="V14" s="23" t="s">
+      <c r="V14" s="38" t="s">
         <v>684</v>
       </c>
-      <c r="W14" s="23" t="s">
+      <c r="W14" s="38" t="s">
         <v>685</v>
       </c>
-      <c r="X14" s="23" t="s">
+      <c r="X14" s="38" t="s">
         <v>686</v>
       </c>
-      <c r="Y14" s="23" t="s">
+      <c r="Y14" s="38" t="s">
         <v>687</v>
       </c>
-      <c r="Z14" s="23" t="s">
+      <c r="Z14" s="38" t="s">
         <v>688</v>
       </c>
-      <c r="AA14" s="21" t="s">
+      <c r="AA14" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="AB14" s="34" t="s">
+      <c r="AB14" s="27" t="s">
         <v>596</v>
       </c>
       <c r="AC14" s="23"/>
@@ -4396,7 +4408,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" s="28" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="21" t="s">
         <v>696</v>
       </c>
@@ -4406,79 +4418,79 @@
       <c r="C15" s="23" t="s">
         <v>698</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="38" t="s">
         <v>699</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="38" t="s">
         <v>700</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="37" t="s">
         <v>701</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="38" t="s">
         <v>702</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="38" t="s">
         <v>703</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="37" t="s">
         <v>704</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="37" t="s">
         <v>705</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="37" t="s">
         <v>706</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="37" t="s">
         <v>709</v>
       </c>
-      <c r="O15" s="23" t="s">
+      <c r="O15" s="38" t="s">
         <v>710</v>
       </c>
-      <c r="P15" s="23" t="s">
+      <c r="P15" s="38" t="s">
         <v>711</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="Q15" s="38" t="s">
         <v>712</v>
       </c>
-      <c r="R15" s="23" t="s">
+      <c r="R15" s="38" t="s">
         <v>713</v>
       </c>
-      <c r="S15" s="23" t="s">
+      <c r="S15" s="38" t="s">
         <v>714</v>
       </c>
-      <c r="T15" s="23" t="s">
+      <c r="T15" s="38" t="s">
         <v>715</v>
       </c>
-      <c r="U15" s="23" t="s">
+      <c r="U15" s="38" t="s">
         <v>716</v>
       </c>
-      <c r="V15" s="23" t="s">
+      <c r="V15" s="38" t="s">
         <v>717</v>
       </c>
-      <c r="W15" s="23" t="s">
+      <c r="W15" s="38" t="s">
         <v>718</v>
       </c>
-      <c r="X15" s="23" t="s">
+      <c r="X15" s="38" t="s">
         <v>719</v>
       </c>
-      <c r="Y15" s="23" t="s">
+      <c r="Y15" s="38" t="s">
         <v>720</v>
       </c>
-      <c r="Z15" s="23" t="s">
+      <c r="Z15" s="38" t="s">
         <v>721</v>
       </c>
-      <c r="AA15" s="21" t="s">
+      <c r="AA15" s="37" t="s">
         <v>722</v>
       </c>
-      <c r="AB15" s="34" t="s">
+      <c r="AB15" s="27" t="s">
         <v>596</v>
       </c>
       <c r="AC15" s="23"/>
@@ -4501,7 +4513,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" s="28" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="21" t="s">
         <v>729</v>
       </c>
@@ -4511,79 +4523,79 @@
       <c r="C16" s="23" t="s">
         <v>731</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="38" t="s">
         <v>732</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="38" t="s">
         <v>733</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="37" t="s">
         <v>734</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="38" t="s">
         <v>735</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="38" t="s">
         <v>736</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="37" t="s">
         <v>737</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="37" t="s">
         <v>738</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="37" t="s">
         <v>741</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="37" t="s">
         <v>742</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="O16" s="38" t="s">
         <v>743</v>
       </c>
-      <c r="P16" s="23" t="s">
+      <c r="P16" s="38" t="s">
         <v>744</v>
       </c>
-      <c r="Q16" s="23" t="s">
+      <c r="Q16" s="38" t="s">
         <v>745</v>
       </c>
-      <c r="R16" s="23" t="s">
+      <c r="R16" s="38" t="s">
         <v>746</v>
       </c>
-      <c r="S16" s="23" t="s">
+      <c r="S16" s="38" t="s">
         <v>747</v>
       </c>
-      <c r="T16" s="23" t="s">
+      <c r="T16" s="38" t="s">
         <v>748</v>
       </c>
-      <c r="U16" s="23" t="s">
+      <c r="U16" s="38" t="s">
         <v>749</v>
       </c>
-      <c r="V16" s="23" t="s">
+      <c r="V16" s="38" t="s">
         <v>750</v>
       </c>
-      <c r="W16" s="23" t="s">
+      <c r="W16" s="38" t="s">
         <v>751</v>
       </c>
-      <c r="X16" s="23" t="s">
+      <c r="X16" s="38" t="s">
         <v>752</v>
       </c>
-      <c r="Y16" s="23" t="s">
+      <c r="Y16" s="38" t="s">
         <v>753</v>
       </c>
-      <c r="Z16" s="23" t="s">
+      <c r="Z16" s="38" t="s">
         <v>754</v>
       </c>
-      <c r="AA16" s="21" t="s">
+      <c r="AA16" s="37" t="s">
         <v>755</v>
       </c>
-      <c r="AB16" s="34" t="s">
+      <c r="AB16" s="27" t="s">
         <v>596</v>
       </c>
       <c r="AC16" s="23"/>
@@ -4606,7 +4618,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="35" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" s="28" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="21" t="s">
         <v>762</v>
       </c>
@@ -4616,79 +4628,79 @@
       <c r="C17" s="23" t="s">
         <v>764</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="38" t="s">
         <v>765</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="38" t="s">
         <v>766</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="37" t="s">
         <v>767</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="38" t="s">
         <v>768</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="38" t="s">
         <v>769</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="37" t="s">
         <v>770</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="37" t="s">
         <v>771</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="37" t="s">
         <v>772</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="37" t="s">
         <v>773</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="37" t="s">
         <v>774</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="37" t="s">
         <v>775</v>
       </c>
-      <c r="O17" s="23" t="s">
+      <c r="O17" s="38" t="s">
         <v>776</v>
       </c>
-      <c r="P17" s="23" t="s">
+      <c r="P17" s="38" t="s">
         <v>777</v>
       </c>
-      <c r="Q17" s="23" t="s">
+      <c r="Q17" s="38" t="s">
         <v>778</v>
       </c>
-      <c r="R17" s="23" t="s">
+      <c r="R17" s="38" t="s">
         <v>779</v>
       </c>
-      <c r="S17" s="23" t="s">
+      <c r="S17" s="38" t="s">
         <v>780</v>
       </c>
-      <c r="T17" s="23" t="s">
+      <c r="T17" s="38" t="s">
         <v>781</v>
       </c>
-      <c r="U17" s="23" t="s">
+      <c r="U17" s="38" t="s">
         <v>782</v>
       </c>
-      <c r="V17" s="23" t="s">
+      <c r="V17" s="38" t="s">
         <v>783</v>
       </c>
-      <c r="W17" s="23" t="s">
+      <c r="W17" s="38" t="s">
         <v>784</v>
       </c>
-      <c r="X17" s="23" t="s">
+      <c r="X17" s="38" t="s">
         <v>785</v>
       </c>
-      <c r="Y17" s="23" t="s">
+      <c r="Y17" s="38" t="s">
         <v>786</v>
       </c>
-      <c r="Z17" s="23" t="s">
+      <c r="Z17" s="38" t="s">
         <v>787</v>
       </c>
-      <c r="AA17" s="21" t="s">
+      <c r="AA17" s="37" t="s">
         <v>788</v>
       </c>
-      <c r="AB17" s="34" t="s">
+      <c r="AB17" s="27" t="s">
         <v>596</v>
       </c>
       <c r="AC17" s="23"/>
@@ -4721,76 +4733,76 @@
       <c r="C18" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="36" t="s">
         <v>600</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="36" t="s">
         <v>601</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="37" t="s">
         <v>602</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="38" t="s">
         <v>603</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="38" t="s">
         <v>604</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="37" t="s">
         <v>605</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="37" t="s">
         <v>606</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="37" t="s">
         <v>607</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="37" t="s">
         <v>608</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="37" t="s">
         <v>609</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="N18" s="37" t="s">
         <v>610</v>
       </c>
-      <c r="O18" s="23" t="s">
+      <c r="O18" s="38" t="s">
         <v>611</v>
       </c>
-      <c r="P18" s="23" t="s">
+      <c r="P18" s="38" t="s">
         <v>612</v>
       </c>
-      <c r="Q18" s="23" t="s">
+      <c r="Q18" s="38" t="s">
         <v>613</v>
       </c>
-      <c r="R18" s="23" t="s">
+      <c r="R18" s="38" t="s">
         <v>614</v>
       </c>
-      <c r="S18" s="23" t="s">
+      <c r="S18" s="38" t="s">
         <v>615</v>
       </c>
-      <c r="T18" s="23" t="s">
+      <c r="T18" s="38" t="s">
         <v>616</v>
       </c>
-      <c r="U18" s="23" t="s">
+      <c r="U18" s="38" t="s">
         <v>617</v>
       </c>
-      <c r="V18" s="23" t="s">
+      <c r="V18" s="38" t="s">
         <v>618</v>
       </c>
-      <c r="W18" s="23" t="s">
+      <c r="W18" s="38" t="s">
         <v>619</v>
       </c>
-      <c r="X18" s="23" t="s">
+      <c r="X18" s="38" t="s">
         <v>620</v>
       </c>
-      <c r="Y18" s="23" t="s">
+      <c r="Y18" s="38" t="s">
         <v>621</v>
       </c>
-      <c r="Z18" s="23" t="s">
+      <c r="Z18" s="38" t="s">
         <v>622</v>
       </c>
-      <c r="AA18" s="21" t="s">
+      <c r="AA18" s="37" t="s">
         <v>623</v>
       </c>
       <c r="AB18" s="17" t="s">
@@ -4826,76 +4838,76 @@
       <c r="C19" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="38" t="s">
         <v>486</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="38" t="s">
         <v>520</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="38" t="s">
         <v>537</v>
       </c>
-      <c r="M19" s="23" t="s">
+      <c r="M19" s="38" t="s">
         <v>554</v>
       </c>
-      <c r="N19" s="23" t="s">
+      <c r="N19" s="38" t="s">
         <v>571</v>
       </c>
-      <c r="O19" s="23" t="s">
+      <c r="O19" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="P19" s="23" t="s">
+      <c r="P19" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="Q19" s="23" t="s">
+      <c r="Q19" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="R19" s="23" t="s">
+      <c r="R19" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="S19" s="23" t="s">
+      <c r="S19" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="T19" s="23" t="s">
+      <c r="T19" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="U19" s="23" t="s">
+      <c r="U19" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="V19" s="23" t="s">
+      <c r="V19" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="W19" s="23" t="s">
+      <c r="W19" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="X19" s="23" t="s">
+      <c r="X19" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="Y19" s="23" t="s">
+      <c r="Y19" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="Z19" s="23" t="s">
+      <c r="Z19" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="AA19" s="23" t="s">
+      <c r="AA19" s="38" t="s">
         <v>588</v>
       </c>
       <c r="AB19" s="17" t="s">
@@ -4931,76 +4943,76 @@
       <c r="C20" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="38" t="s">
         <v>467</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="38" t="s">
         <v>521</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="38" t="s">
         <v>538</v>
       </c>
-      <c r="M20" s="23" t="s">
+      <c r="M20" s="38" t="s">
         <v>555</v>
       </c>
-      <c r="N20" s="23" t="s">
+      <c r="N20" s="38" t="s">
         <v>572</v>
       </c>
-      <c r="O20" s="23" t="s">
+      <c r="O20" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="P20" s="23" t="s">
+      <c r="P20" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="Q20" s="23" t="s">
+      <c r="Q20" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="R20" s="23" t="s">
+      <c r="R20" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="S20" s="23" t="s">
+      <c r="S20" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="T20" s="23" t="s">
+      <c r="T20" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="U20" s="23" t="s">
+      <c r="U20" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="V20" s="23" t="s">
+      <c r="V20" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="W20" s="23" t="s">
+      <c r="W20" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="X20" s="23" t="s">
+      <c r="X20" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="Y20" s="23" t="s">
+      <c r="Y20" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="Z20" s="23" t="s">
+      <c r="Z20" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="AA20" s="23" t="s">
+      <c r="AA20" s="38" t="s">
         <v>589</v>
       </c>
       <c r="AB20" s="17" t="s">
@@ -5036,76 +5048,76 @@
       <c r="C21" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="38" t="s">
         <v>488</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="38" t="s">
         <v>539</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M21" s="38" t="s">
         <v>556</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="N21" s="38" t="s">
         <v>573</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="O21" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="P21" s="23" t="s">
+      <c r="P21" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="Q21" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="R21" s="23" t="s">
+      <c r="R21" s="38" t="s">
         <v>298</v>
       </c>
-      <c r="S21" s="23" t="s">
+      <c r="S21" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="T21" s="23" t="s">
+      <c r="T21" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="U21" s="23" t="s">
+      <c r="U21" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="V21" s="23" t="s">
+      <c r="V21" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="W21" s="23" t="s">
+      <c r="W21" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="X21" s="23" t="s">
+      <c r="X21" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="Y21" s="23" t="s">
+      <c r="Y21" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="Z21" s="23" t="s">
+      <c r="Z21" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="AA21" s="23" t="s">
+      <c r="AA21" s="38" t="s">
         <v>590</v>
       </c>
       <c r="AB21" s="17" t="s">
@@ -5141,76 +5153,76 @@
       <c r="C22" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="36" t="s">
         <v>315</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="36" t="s">
         <v>316</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="38" t="s">
         <v>469</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="38" t="s">
         <v>317</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="38" t="s">
         <v>489</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="38" t="s">
         <v>557</v>
       </c>
-      <c r="N22" s="23" t="s">
+      <c r="N22" s="38" t="s">
         <v>574</v>
       </c>
-      <c r="O22" s="23" t="s">
+      <c r="O22" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="P22" s="23" t="s">
+      <c r="P22" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="Q22" s="23" t="s">
+      <c r="Q22" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="R22" s="23" t="s">
+      <c r="R22" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="S22" s="23" t="s">
+      <c r="S22" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="T22" s="23" t="s">
+      <c r="T22" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="U22" s="23" t="s">
+      <c r="U22" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="V22" s="23" t="s">
+      <c r="V22" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="W22" s="23" t="s">
+      <c r="W22" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="X22" s="23" t="s">
+      <c r="X22" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="Y22" s="23" t="s">
+      <c r="Y22" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="Z22" s="23" t="s">
+      <c r="Z22" s="38" t="s">
         <v>330</v>
       </c>
-      <c r="AA22" s="23" t="s">
+      <c r="AA22" s="38" t="s">
         <v>591</v>
       </c>
       <c r="AB22" s="17" t="s">
@@ -5229,10 +5241,10 @@
       <c r="AG22" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="AH22" s="12" t="s">
+      <c r="AH22" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="AI22" s="12" t="s">
+      <c r="AI22" s="36" t="s">
         <v>336</v>
       </c>
     </row>
@@ -5246,76 +5258,76 @@
       <c r="C23" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="36" t="s">
         <v>339</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="38" t="s">
         <v>342</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="38" t="s">
         <v>490</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="38" t="s">
         <v>507</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="38" t="s">
         <v>524</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="38" t="s">
         <v>541</v>
       </c>
-      <c r="M23" s="23" t="s">
+      <c r="M23" s="38" t="s">
         <v>558</v>
       </c>
-      <c r="N23" s="23" t="s">
+      <c r="N23" s="38" t="s">
         <v>575</v>
       </c>
-      <c r="O23" s="23" t="s">
+      <c r="O23" s="38" t="s">
         <v>343</v>
       </c>
-      <c r="P23" s="23" t="s">
+      <c r="P23" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="Q23" s="23" t="s">
+      <c r="Q23" s="38" t="s">
         <v>345</v>
       </c>
-      <c r="R23" s="23" t="s">
+      <c r="R23" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="S23" s="23" t="s">
+      <c r="S23" s="38" t="s">
         <v>347</v>
       </c>
-      <c r="T23" s="23" t="s">
+      <c r="T23" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="U23" s="23" t="s">
+      <c r="U23" s="38" t="s">
         <v>349</v>
       </c>
-      <c r="V23" s="23" t="s">
+      <c r="V23" s="38" t="s">
         <v>350</v>
       </c>
-      <c r="W23" s="23" t="s">
+      <c r="W23" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="X23" s="23" t="s">
+      <c r="X23" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="Y23" s="23" t="s">
+      <c r="Y23" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="Z23" s="23" t="s">
+      <c r="Z23" s="38" t="s">
         <v>354</v>
       </c>
-      <c r="AA23" s="23" t="s">
+      <c r="AA23" s="38" t="s">
         <v>592</v>
       </c>
       <c r="AB23" s="17" t="s">
@@ -5334,10 +5346,10 @@
       <c r="AG23" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="AH23" s="12" t="s">
+      <c r="AH23" s="36" t="s">
         <v>359</v>
       </c>
-      <c r="AI23" s="12" t="s">
+      <c r="AI23" s="36" t="s">
         <v>360</v>
       </c>
     </row>
@@ -5351,76 +5363,76 @@
       <c r="C24" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="38" t="s">
         <v>491</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="38" t="s">
         <v>508</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="38" t="s">
         <v>525</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="38" t="s">
         <v>542</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="38" t="s">
         <v>559</v>
       </c>
-      <c r="N24" s="23" t="s">
+      <c r="N24" s="38" t="s">
         <v>576</v>
       </c>
-      <c r="O24" s="23" t="s">
+      <c r="O24" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="P24" s="23" t="s">
+      <c r="P24" s="38" t="s">
         <v>368</v>
       </c>
-      <c r="Q24" s="23" t="s">
+      <c r="Q24" s="38" t="s">
         <v>369</v>
       </c>
-      <c r="R24" s="23" t="s">
+      <c r="R24" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="S24" s="23" t="s">
+      <c r="S24" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="T24" s="23" t="s">
+      <c r="T24" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="U24" s="23" t="s">
+      <c r="U24" s="38" t="s">
         <v>373</v>
       </c>
-      <c r="V24" s="23" t="s">
+      <c r="V24" s="38" t="s">
         <v>374</v>
       </c>
-      <c r="W24" s="23" t="s">
+      <c r="W24" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="X24" s="23" t="s">
+      <c r="X24" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="Y24" s="23" t="s">
+      <c r="Y24" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="Z24" s="23" t="s">
+      <c r="Z24" s="38" t="s">
         <v>378</v>
       </c>
-      <c r="AA24" s="23" t="s">
+      <c r="AA24" s="38" t="s">
         <v>593</v>
       </c>
       <c r="AB24" s="17" t="s">
@@ -5439,10 +5451,10 @@
       <c r="AG24" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="AH24" s="12" t="s">
+      <c r="AH24" s="36" t="s">
         <v>383</v>
       </c>
-      <c r="AI24" s="12" t="s">
+      <c r="AI24" s="36" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5456,76 +5468,76 @@
       <c r="C25" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="38" t="s">
         <v>472</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="I25" s="23" t="s">
+      <c r="I25" s="38" t="s">
         <v>492</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="38" t="s">
         <v>526</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="38" t="s">
         <v>543</v>
       </c>
-      <c r="M25" s="23" t="s">
+      <c r="M25" s="38" t="s">
         <v>560</v>
       </c>
-      <c r="N25" s="23" t="s">
+      <c r="N25" s="38" t="s">
         <v>577</v>
       </c>
-      <c r="O25" s="23" t="s">
+      <c r="O25" s="38" t="s">
         <v>391</v>
       </c>
-      <c r="P25" s="23" t="s">
+      <c r="P25" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="Q25" s="23" t="s">
+      <c r="Q25" s="38" t="s">
         <v>393</v>
       </c>
-      <c r="R25" s="23" t="s">
+      <c r="R25" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="S25" s="23" t="s">
+      <c r="S25" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="T25" s="23" t="s">
+      <c r="T25" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="U25" s="23" t="s">
+      <c r="U25" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="V25" s="23" t="s">
+      <c r="V25" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="W25" s="23" t="s">
+      <c r="W25" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="X25" s="23" t="s">
+      <c r="X25" s="38" t="s">
         <v>400</v>
       </c>
-      <c r="Y25" s="23" t="s">
+      <c r="Y25" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="Z25" s="23" t="s">
+      <c r="Z25" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="AA25" s="23" t="s">
+      <c r="AA25" s="38" t="s">
         <v>594</v>
       </c>
       <c r="AB25" s="17" t="s">
@@ -5544,18 +5556,18 @@
       <c r="AG25" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="AH25" s="12" t="s">
+      <c r="AH25" s="36" t="s">
         <v>407</v>
       </c>
-      <c r="AI25" s="12" t="s">
+      <c r="AI25" s="36" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="31" t="s">
         <v>409</v>
       </c>
-      <c r="B26" s="29"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="13">
         <f>SUM(C4:C25)</f>
         <v>0</v>
@@ -5690,76 +5702,76 @@
       <c r="C27" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="36" t="s">
         <v>412</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="38" t="s">
         <v>473</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="38" t="s">
         <v>414</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="38" t="s">
         <v>415</v>
       </c>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="M27" s="23" t="s">
+      <c r="M27" s="38" t="s">
         <v>561</v>
       </c>
-      <c r="N27" s="23" t="s">
+      <c r="N27" s="38" t="s">
         <v>578</v>
       </c>
-      <c r="O27" s="23" t="s">
+      <c r="O27" s="38" t="s">
         <v>416</v>
       </c>
-      <c r="P27" s="23" t="s">
+      <c r="P27" s="38" t="s">
         <v>417</v>
       </c>
-      <c r="Q27" s="23" t="s">
+      <c r="Q27" s="38" t="s">
         <v>418</v>
       </c>
-      <c r="R27" s="23" t="s">
+      <c r="R27" s="38" t="s">
         <v>419</v>
       </c>
-      <c r="S27" s="23" t="s">
+      <c r="S27" s="38" t="s">
         <v>420</v>
       </c>
-      <c r="T27" s="23" t="s">
+      <c r="T27" s="38" t="s">
         <v>421</v>
       </c>
-      <c r="U27" s="23" t="s">
+      <c r="U27" s="38" t="s">
         <v>422</v>
       </c>
-      <c r="V27" s="23" t="s">
+      <c r="V27" s="38" t="s">
         <v>423</v>
       </c>
-      <c r="W27" s="23" t="s">
+      <c r="W27" s="38" t="s">
         <v>424</v>
       </c>
-      <c r="X27" s="23" t="s">
+      <c r="X27" s="38" t="s">
         <v>425</v>
       </c>
-      <c r="Y27" s="23" t="s">
+      <c r="Y27" s="38" t="s">
         <v>426</v>
       </c>
-      <c r="Z27" s="23" t="s">
+      <c r="Z27" s="38" t="s">
         <v>427</v>
       </c>
-      <c r="AA27" s="23" t="s">
+      <c r="AA27" s="38" t="s">
         <v>595</v>
       </c>
       <c r="AB27" s="17" t="s">
@@ -5778,18 +5790,18 @@
       <c r="AG27" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="AH27" s="12" t="s">
+      <c r="AH27" s="36" t="s">
         <v>432</v>
       </c>
-      <c r="AI27" s="12" t="s">
+      <c r="AI27" s="36" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:35" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="13">
         <f t="shared" ref="C28:AB28" si="2">SUM(C27:C27)</f>
         <v>0</v>

--- a/ReportTemplate/ReportPost.xlsx
+++ b/ReportTemplate/ReportPost.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#\Project\PayrollReport\PayrollReport\MainUI\bin\Debug\ReportTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#\Project\PayrollReport\ReportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2592,7 +2592,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2638,14 +2638,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2665,19 +2659,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2701,13 +2707,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3035,9 +3047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI48"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH27" sqref="AH27:AI27"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3047,26 +3059,26 @@
     <col min="3" max="3" width="15.375" style="6" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
     <col min="5" max="5" width="12" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="6.875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="19" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="19" customWidth="1"/>
-    <col min="12" max="12" width="9" style="19" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="19" customWidth="1"/>
-    <col min="14" max="14" width="5.125" style="19" customWidth="1"/>
-    <col min="15" max="15" width="5.25" style="19" customWidth="1"/>
-    <col min="16" max="16" width="6.125" style="19" customWidth="1"/>
-    <col min="17" max="17" width="6.25" style="19" customWidth="1"/>
-    <col min="18" max="18" width="5.625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="6.75" style="19" customWidth="1"/>
-    <col min="20" max="20" width="7" style="19" customWidth="1"/>
-    <col min="21" max="21" width="5.625" style="19" customWidth="1"/>
-    <col min="22" max="22" width="4.5" style="19" customWidth="1"/>
-    <col min="23" max="23" width="6.375" style="19" customWidth="1"/>
-    <col min="24" max="25" width="4.25" style="19" customWidth="1"/>
-    <col min="26" max="27" width="8.125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="6.875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="9" style="17" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="17" customWidth="1"/>
+    <col min="14" max="14" width="5.125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="5.25" style="17" customWidth="1"/>
+    <col min="16" max="16" width="6.125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="6.25" style="17" customWidth="1"/>
+    <col min="18" max="18" width="5.625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="6.75" style="17" customWidth="1"/>
+    <col min="20" max="20" width="7" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.625" style="17" customWidth="1"/>
+    <col min="22" max="22" width="4.5" style="17" customWidth="1"/>
+    <col min="23" max="23" width="6.375" style="17" customWidth="1"/>
+    <col min="24" max="25" width="4.25" style="17" customWidth="1"/>
+    <col min="26" max="27" width="8.125" style="17" customWidth="1"/>
     <col min="28" max="28" width="24.375" style="6" customWidth="1"/>
     <col min="29" max="29" width="11.25" style="6" customWidth="1"/>
     <col min="30" max="30" width="11.125" style="6" customWidth="1"/>
@@ -3077,43 +3089,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
     </row>
     <row r="2" spans="1:35" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8"/>
@@ -3123,32 +3135,32 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="33" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="33"/>
+      <c r="AC2" s="35"/>
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
@@ -3157,10 +3169,10 @@
       <c r="AI2" s="8"/>
     </row>
     <row r="3" spans="1:35" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
@@ -3170,70 +3182,70 @@
       <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="20" t="s">
+      <c r="W3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="X3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="18" t="s">
         <v>442</v>
       </c>
       <c r="AB3" s="10" t="s">
@@ -3262,93 +3274,93 @@
       </c>
     </row>
     <row r="4" spans="1:35" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="38" t="s">
         <v>443</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="26" t="s">
         <v>477</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="26" t="s">
         <v>528</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="26" t="s">
         <v>562</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="22" t="s">
+      <c r="Q4" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="22" t="s">
+      <c r="R4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="22" t="s">
+      <c r="U4" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="W4" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="22" t="s">
+      <c r="X4" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="22" t="s">
+      <c r="Y4" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="Z4" s="22" t="s">
+      <c r="Z4" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="AA4" s="21" t="s">
+      <c r="AA4" s="26" t="s">
         <v>579</v>
       </c>
-      <c r="AB4" s="17" t="s">
+      <c r="AB4" s="28" t="s">
         <v>596</v>
       </c>
       <c r="AC4" s="11"/>
-      <c r="AD4" s="11" t="s">
+      <c r="AD4" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AE4" s="38" t="s">
         <v>47</v>
       </c>
       <c r="AF4" s="11" t="s">
@@ -3357,101 +3369,101 @@
       <c r="AG4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AH4" s="11" t="s">
+      <c r="AH4" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AI4" s="38" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="41" t="s">
         <v>444</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="26" t="s">
         <v>475</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="26" t="s">
         <v>478</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="26" t="s">
         <v>529</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="26" t="s">
         <v>546</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="Q5" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="R5" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="U5" s="22" t="s">
+      <c r="U5" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="V5" s="22" t="s">
+      <c r="V5" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="W5" s="22" t="s">
+      <c r="W5" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="X5" s="22" t="s">
+      <c r="X5" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="Y5" s="22" t="s">
+      <c r="Y5" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="Z5" s="22" t="s">
+      <c r="Z5" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AA5" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="AB5" s="17" t="s">
+      <c r="AB5" s="28" t="s">
         <v>596</v>
       </c>
       <c r="AC5" s="11"/>
-      <c r="AD5" s="11" t="s">
+      <c r="AD5" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="AE5" s="11" t="s">
+      <c r="AE5" s="38" t="s">
         <v>70</v>
       </c>
       <c r="AF5" s="11" t="s">
@@ -3460,101 +3472,101 @@
       <c r="AG5" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AH5" s="11" t="s">
+      <c r="AH5" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="AI5" s="11" t="s">
+      <c r="AI5" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="31" t="s">
         <v>445</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="26" t="s">
         <v>479</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="26" t="s">
         <v>513</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="26" t="s">
         <v>530</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="Q6" s="23" t="s">
+      <c r="Q6" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="R6" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="S6" s="23" t="s">
+      <c r="S6" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="T6" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="U6" s="23" t="s">
+      <c r="U6" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="V6" s="23" t="s">
+      <c r="V6" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="W6" s="23" t="s">
+      <c r="W6" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="X6" s="23" t="s">
+      <c r="X6" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="Y6" s="23" t="s">
+      <c r="Y6" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="Z6" s="23" t="s">
+      <c r="Z6" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="AA6" s="21" t="s">
+      <c r="AA6" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="AB6" s="17" t="s">
+      <c r="AB6" s="28" t="s">
         <v>596</v>
       </c>
       <c r="AC6" s="12"/>
-      <c r="AD6" s="12" t="s">
+      <c r="AD6" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AE6" s="12" t="s">
+      <c r="AE6" s="25" t="s">
         <v>93</v>
       </c>
       <c r="AF6" s="12" t="s">
@@ -3563,101 +3575,101 @@
       <c r="AG6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AH6" s="12" t="s">
+      <c r="AH6" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="AI6" s="12" t="s">
+      <c r="AI6" s="25" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="31" t="s">
         <v>446</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="26" t="s">
         <v>497</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="26" t="s">
         <v>565</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="P7" s="23" t="s">
+      <c r="P7" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="Q7" s="23" t="s">
+      <c r="Q7" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="R7" s="23" t="s">
+      <c r="R7" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="S7" s="23" t="s">
+      <c r="S7" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="T7" s="23" t="s">
+      <c r="T7" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="U7" s="23" t="s">
+      <c r="U7" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="V7" s="23" t="s">
+      <c r="V7" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="W7" s="23" t="s">
+      <c r="W7" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="X7" s="23" t="s">
+      <c r="X7" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="Y7" s="23" t="s">
+      <c r="Y7" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="Z7" s="23" t="s">
+      <c r="Z7" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="AA7" s="21" t="s">
+      <c r="AA7" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="AB7" s="17" t="s">
+      <c r="AB7" s="28" t="s">
         <v>596</v>
       </c>
       <c r="AC7" s="12"/>
-      <c r="AD7" s="12" t="s">
+      <c r="AD7" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="AE7" s="12" t="s">
+      <c r="AE7" s="25" t="s">
         <v>116</v>
       </c>
       <c r="AF7" s="12" t="s">
@@ -3666,103 +3678,103 @@
       <c r="AG7" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="AH7" s="12" t="s">
+      <c r="AH7" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="AI7" s="12" t="s">
+      <c r="AI7" s="25" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>447</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="26" t="s">
         <v>461</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="26" t="s">
         <v>481</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="26" t="s">
         <v>498</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="26" t="s">
         <v>549</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="P8" s="23" t="s">
+      <c r="P8" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="Q8" s="23" t="s">
+      <c r="Q8" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="R8" s="23" t="s">
+      <c r="R8" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="S8" s="23" t="s">
+      <c r="S8" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="T8" s="23" t="s">
+      <c r="T8" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="U8" s="23" t="s">
+      <c r="U8" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="V8" s="23" t="s">
+      <c r="V8" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="W8" s="23" t="s">
+      <c r="W8" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="X8" s="23" t="s">
+      <c r="X8" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="Y8" s="23" t="s">
+      <c r="Y8" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="Z8" s="23" t="s">
+      <c r="Z8" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="AA8" s="21" t="s">
+      <c r="AA8" s="26" t="s">
         <v>583</v>
       </c>
-      <c r="AB8" s="17" t="s">
+      <c r="AB8" s="28" t="s">
         <v>596</v>
       </c>
       <c r="AC8" s="12"/>
-      <c r="AD8" s="12" t="s">
+      <c r="AD8" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="AE8" s="12" t="s">
+      <c r="AE8" s="25" t="s">
         <v>140</v>
       </c>
       <c r="AF8" s="12" t="s">
@@ -3771,103 +3783,103 @@
       <c r="AG8" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="AH8" s="12" t="s">
+      <c r="AH8" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AI8" s="12" t="s">
+      <c r="AI8" s="25" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>448</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="26" t="s">
         <v>462</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="26" t="s">
         <v>482</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="26" t="s">
         <v>516</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="26" t="s">
         <v>550</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="26" t="s">
         <v>567</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="O9" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="P9" s="23" t="s">
+      <c r="P9" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="Q9" s="23" t="s">
+      <c r="Q9" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="R9" s="23" t="s">
+      <c r="R9" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="S9" s="23" t="s">
+      <c r="S9" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="T9" s="23" t="s">
+      <c r="T9" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="U9" s="23" t="s">
+      <c r="U9" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="V9" s="23" t="s">
+      <c r="V9" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="W9" s="23" t="s">
+      <c r="W9" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="X9" s="23" t="s">
+      <c r="X9" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="Y9" s="23" t="s">
+      <c r="Y9" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="Z9" s="23" t="s">
+      <c r="Z9" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="AA9" s="21" t="s">
+      <c r="AA9" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="AB9" s="17" t="s">
+      <c r="AB9" s="28" t="s">
         <v>596</v>
       </c>
       <c r="AC9" s="12"/>
-      <c r="AD9" s="12" t="s">
+      <c r="AD9" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="AE9" s="12" t="s">
+      <c r="AE9" s="25" t="s">
         <v>164</v>
       </c>
       <c r="AF9" s="12" t="s">
@@ -3876,103 +3888,103 @@
       <c r="AG9" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="AH9" s="12" t="s">
+      <c r="AH9" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AI9" s="12" t="s">
+      <c r="AI9" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>449</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="26" t="s">
         <v>463</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="26" t="s">
         <v>534</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="N10" s="37" t="s">
+      <c r="N10" s="26" t="s">
         <v>568</v>
       </c>
-      <c r="O10" s="38" t="s">
+      <c r="O10" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="P10" s="38" t="s">
+      <c r="P10" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="Q10" s="38" t="s">
+      <c r="Q10" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="S10" s="38" t="s">
+      <c r="S10" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="T10" s="38" t="s">
+      <c r="T10" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="U10" s="38" t="s">
+      <c r="U10" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="V10" s="38" t="s">
+      <c r="V10" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="W10" s="38" t="s">
+      <c r="W10" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="X10" s="38" t="s">
+      <c r="X10" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="Y10" s="38" t="s">
+      <c r="Y10" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="Z10" s="38" t="s">
+      <c r="Z10" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="AA10" s="37" t="s">
+      <c r="AA10" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="AB10" s="17" t="s">
+      <c r="AB10" s="28" t="s">
         <v>596</v>
       </c>
       <c r="AC10" s="12"/>
-      <c r="AD10" s="12" t="s">
+      <c r="AD10" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="AE10" s="12" t="s">
+      <c r="AE10" s="25" t="s">
         <v>188</v>
       </c>
       <c r="AF10" s="12" t="s">
@@ -3981,103 +3993,103 @@
       <c r="AG10" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="AH10" s="12" t="s">
+      <c r="AH10" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="AI10" s="12" t="s">
+      <c r="AI10" s="25" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>450</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="26" t="s">
         <v>518</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="M11" s="26" t="s">
         <v>552</v>
       </c>
-      <c r="N11" s="37" t="s">
+      <c r="N11" s="26" t="s">
         <v>569</v>
       </c>
-      <c r="O11" s="38" t="s">
+      <c r="O11" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="P11" s="38" t="s">
+      <c r="P11" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="Q11" s="38" t="s">
+      <c r="Q11" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="R11" s="38" t="s">
+      <c r="R11" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="S11" s="38" t="s">
+      <c r="S11" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="T11" s="38" t="s">
+      <c r="T11" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="U11" s="38" t="s">
+      <c r="U11" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="V11" s="38" t="s">
+      <c r="V11" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="W11" s="38" t="s">
+      <c r="W11" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="X11" s="38" t="s">
+      <c r="X11" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="Y11" s="38" t="s">
+      <c r="Y11" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="Z11" s="38" t="s">
+      <c r="Z11" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="AA11" s="37" t="s">
+      <c r="AA11" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="AB11" s="17" t="s">
+      <c r="AB11" s="28" t="s">
         <v>596</v>
       </c>
       <c r="AC11" s="12"/>
-      <c r="AD11" s="12" t="s">
+      <c r="AD11" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="AE11" s="12" t="s">
+      <c r="AE11" s="25" t="s">
         <v>212</v>
       </c>
       <c r="AF11" s="12" t="s">
@@ -4086,103 +4098,103 @@
       <c r="AG11" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="AH11" s="12" t="s">
+      <c r="AH11" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="AI11" s="12" t="s">
+      <c r="AI11" s="25" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>451</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="26" t="s">
         <v>465</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="26" t="s">
         <v>536</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="M12" s="26" t="s">
         <v>553</v>
       </c>
-      <c r="N12" s="37" t="s">
+      <c r="N12" s="26" t="s">
         <v>570</v>
       </c>
-      <c r="O12" s="38" t="s">
+      <c r="O12" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="P12" s="38" t="s">
+      <c r="P12" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="Q12" s="38" t="s">
+      <c r="Q12" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="R12" s="38" t="s">
+      <c r="R12" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="S12" s="38" t="s">
+      <c r="S12" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="T12" s="38" t="s">
+      <c r="T12" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="U12" s="38" t="s">
+      <c r="U12" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="V12" s="38" t="s">
+      <c r="V12" s="27" t="s">
         <v>230</v>
       </c>
-      <c r="W12" s="38" t="s">
+      <c r="W12" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="X12" s="38" t="s">
+      <c r="X12" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="Y12" s="38" t="s">
+      <c r="Y12" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="Z12" s="38" t="s">
+      <c r="Z12" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="AA12" s="37" t="s">
+      <c r="AA12" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="AB12" s="17" t="s">
+      <c r="AB12" s="28" t="s">
         <v>596</v>
       </c>
       <c r="AC12" s="12"/>
-      <c r="AD12" s="12" t="s">
+      <c r="AD12" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="AE12" s="12" t="s">
+      <c r="AE12" s="25" t="s">
         <v>236</v>
       </c>
       <c r="AF12" s="12" t="s">
@@ -4191,733 +4203,733 @@
       <c r="AG12" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="AH12" s="12" t="s">
+      <c r="AH12" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="AI12" s="12" t="s">
+      <c r="AI12" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:35" s="28" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:35" s="24" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>631</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="27" t="s">
         <v>632</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="27" t="s">
         <v>634</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="H13" s="38" t="s">
+      <c r="H13" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="26" t="s">
         <v>638</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="26" t="s">
         <v>639</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="26" t="s">
         <v>640</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="26" t="s">
         <v>641</v>
       </c>
-      <c r="M13" s="37" t="s">
+      <c r="M13" s="26" t="s">
         <v>642</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="N13" s="26" t="s">
         <v>643</v>
       </c>
-      <c r="O13" s="38" t="s">
+      <c r="O13" s="27" t="s">
         <v>644</v>
       </c>
-      <c r="P13" s="38" t="s">
+      <c r="P13" s="27" t="s">
         <v>645</v>
       </c>
-      <c r="Q13" s="38" t="s">
+      <c r="Q13" s="27" t="s">
         <v>646</v>
       </c>
-      <c r="R13" s="38" t="s">
+      <c r="R13" s="27" t="s">
         <v>647</v>
       </c>
-      <c r="S13" s="38" t="s">
+      <c r="S13" s="27" t="s">
         <v>648</v>
       </c>
-      <c r="T13" s="38" t="s">
+      <c r="T13" s="27" t="s">
         <v>649</v>
       </c>
-      <c r="U13" s="38" t="s">
+      <c r="U13" s="27" t="s">
         <v>650</v>
       </c>
-      <c r="V13" s="38" t="s">
+      <c r="V13" s="27" t="s">
         <v>651</v>
       </c>
-      <c r="W13" s="38" t="s">
+      <c r="W13" s="27" t="s">
         <v>652</v>
       </c>
-      <c r="X13" s="38" t="s">
+      <c r="X13" s="27" t="s">
         <v>653</v>
       </c>
-      <c r="Y13" s="38" t="s">
+      <c r="Y13" s="27" t="s">
         <v>654</v>
       </c>
-      <c r="Z13" s="38" t="s">
+      <c r="Z13" s="27" t="s">
         <v>655</v>
       </c>
-      <c r="AA13" s="37" t="s">
+      <c r="AA13" s="26" t="s">
         <v>656</v>
       </c>
-      <c r="AB13" s="27" t="s">
+      <c r="AB13" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23" t="s">
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="27" t="s">
         <v>657</v>
       </c>
-      <c r="AE13" s="23" t="s">
+      <c r="AE13" s="27" t="s">
         <v>658</v>
       </c>
-      <c r="AF13" s="23" t="s">
+      <c r="AF13" s="21" t="s">
         <v>659</v>
       </c>
-      <c r="AG13" s="23" t="s">
+      <c r="AG13" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="AH13" s="23" t="s">
+      <c r="AH13" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="AI13" s="23" t="s">
+      <c r="AI13" s="27" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="28" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:35" s="24" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="19" t="s">
         <v>663</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="27" t="s">
         <v>665</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="27" t="s">
         <v>666</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="27" t="s">
         <v>667</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="26" t="s">
         <v>668</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="27" t="s">
         <v>669</v>
       </c>
-      <c r="H14" s="38" t="s">
+      <c r="H14" s="27" t="s">
         <v>670</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="26" t="s">
         <v>671</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="26" t="s">
         <v>672</v>
       </c>
-      <c r="K14" s="37" t="s">
+      <c r="K14" s="26" t="s">
         <v>673</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="26" t="s">
         <v>674</v>
       </c>
-      <c r="M14" s="37" t="s">
+      <c r="M14" s="26" t="s">
         <v>675</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="N14" s="26" t="s">
         <v>676</v>
       </c>
-      <c r="O14" s="38" t="s">
+      <c r="O14" s="27" t="s">
         <v>677</v>
       </c>
-      <c r="P14" s="38" t="s">
+      <c r="P14" s="27" t="s">
         <v>678</v>
       </c>
-      <c r="Q14" s="38" t="s">
+      <c r="Q14" s="27" t="s">
         <v>679</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R14" s="27" t="s">
         <v>680</v>
       </c>
-      <c r="S14" s="38" t="s">
+      <c r="S14" s="27" t="s">
         <v>681</v>
       </c>
-      <c r="T14" s="38" t="s">
+      <c r="T14" s="27" t="s">
         <v>682</v>
       </c>
-      <c r="U14" s="38" t="s">
+      <c r="U14" s="27" t="s">
         <v>683</v>
       </c>
-      <c r="V14" s="38" t="s">
+      <c r="V14" s="27" t="s">
         <v>684</v>
       </c>
-      <c r="W14" s="38" t="s">
+      <c r="W14" s="27" t="s">
         <v>685</v>
       </c>
-      <c r="X14" s="38" t="s">
+      <c r="X14" s="27" t="s">
         <v>686</v>
       </c>
-      <c r="Y14" s="38" t="s">
+      <c r="Y14" s="27" t="s">
         <v>687</v>
       </c>
-      <c r="Z14" s="38" t="s">
+      <c r="Z14" s="27" t="s">
         <v>688</v>
       </c>
-      <c r="AA14" s="37" t="s">
+      <c r="AA14" s="26" t="s">
         <v>689</v>
       </c>
-      <c r="AB14" s="27" t="s">
+      <c r="AB14" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23" t="s">
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="27" t="s">
         <v>690</v>
       </c>
-      <c r="AE14" s="23" t="s">
+      <c r="AE14" s="27" t="s">
         <v>691</v>
       </c>
-      <c r="AF14" s="23" t="s">
+      <c r="AF14" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="AG14" s="23" t="s">
+      <c r="AG14" s="21" t="s">
         <v>693</v>
       </c>
-      <c r="AH14" s="23" t="s">
+      <c r="AH14" s="27" t="s">
         <v>694</v>
       </c>
-      <c r="AI14" s="23" t="s">
+      <c r="AI14" s="27" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="28" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:35" s="24" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="19" t="s">
         <v>696</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>697</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="27" t="s">
         <v>698</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="27" t="s">
         <v>699</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="27" t="s">
         <v>700</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="26" t="s">
         <v>701</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="27" t="s">
         <v>702</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" s="27" t="s">
         <v>703</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="26" t="s">
         <v>704</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="26" t="s">
         <v>705</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="26" t="s">
         <v>706</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="26" t="s">
         <v>707</v>
       </c>
-      <c r="M15" s="37" t="s">
+      <c r="M15" s="26" t="s">
         <v>708</v>
       </c>
-      <c r="N15" s="37" t="s">
+      <c r="N15" s="26" t="s">
         <v>709</v>
       </c>
-      <c r="O15" s="38" t="s">
+      <c r="O15" s="27" t="s">
         <v>710</v>
       </c>
-      <c r="P15" s="38" t="s">
+      <c r="P15" s="27" t="s">
         <v>711</v>
       </c>
-      <c r="Q15" s="38" t="s">
+      <c r="Q15" s="27" t="s">
         <v>712</v>
       </c>
-      <c r="R15" s="38" t="s">
+      <c r="R15" s="27" t="s">
         <v>713</v>
       </c>
-      <c r="S15" s="38" t="s">
+      <c r="S15" s="27" t="s">
         <v>714</v>
       </c>
-      <c r="T15" s="38" t="s">
+      <c r="T15" s="27" t="s">
         <v>715</v>
       </c>
-      <c r="U15" s="38" t="s">
+      <c r="U15" s="27" t="s">
         <v>716</v>
       </c>
-      <c r="V15" s="38" t="s">
+      <c r="V15" s="27" t="s">
         <v>717</v>
       </c>
-      <c r="W15" s="38" t="s">
+      <c r="W15" s="27" t="s">
         <v>718</v>
       </c>
-      <c r="X15" s="38" t="s">
+      <c r="X15" s="27" t="s">
         <v>719</v>
       </c>
-      <c r="Y15" s="38" t="s">
+      <c r="Y15" s="27" t="s">
         <v>720</v>
       </c>
-      <c r="Z15" s="38" t="s">
+      <c r="Z15" s="27" t="s">
         <v>721</v>
       </c>
-      <c r="AA15" s="37" t="s">
+      <c r="AA15" s="26" t="s">
         <v>722</v>
       </c>
-      <c r="AB15" s="27" t="s">
+      <c r="AB15" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23" t="s">
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="27" t="s">
         <v>723</v>
       </c>
-      <c r="AE15" s="23" t="s">
+      <c r="AE15" s="27" t="s">
         <v>724</v>
       </c>
-      <c r="AF15" s="23" t="s">
+      <c r="AF15" s="21" t="s">
         <v>725</v>
       </c>
-      <c r="AG15" s="23" t="s">
+      <c r="AG15" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="AH15" s="23" t="s">
+      <c r="AH15" s="27" t="s">
         <v>727</v>
       </c>
-      <c r="AI15" s="23" t="s">
+      <c r="AI15" s="27" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="28" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21" t="s">
+    <row r="16" spans="1:35" s="24" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
         <v>729</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>730</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="27" t="s">
         <v>731</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="27" t="s">
         <v>732</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="27" t="s">
         <v>733</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="26" t="s">
         <v>734</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="27" t="s">
         <v>735</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="27" t="s">
         <v>736</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="26" t="s">
         <v>737</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="26" t="s">
         <v>738</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="26" t="s">
         <v>740</v>
       </c>
-      <c r="M16" s="37" t="s">
+      <c r="M16" s="26" t="s">
         <v>741</v>
       </c>
-      <c r="N16" s="37" t="s">
+      <c r="N16" s="26" t="s">
         <v>742</v>
       </c>
-      <c r="O16" s="38" t="s">
+      <c r="O16" s="27" t="s">
         <v>743</v>
       </c>
-      <c r="P16" s="38" t="s">
+      <c r="P16" s="27" t="s">
         <v>744</v>
       </c>
-      <c r="Q16" s="38" t="s">
+      <c r="Q16" s="27" t="s">
         <v>745</v>
       </c>
-      <c r="R16" s="38" t="s">
+      <c r="R16" s="27" t="s">
         <v>746</v>
       </c>
-      <c r="S16" s="38" t="s">
+      <c r="S16" s="27" t="s">
         <v>747</v>
       </c>
-      <c r="T16" s="38" t="s">
+      <c r="T16" s="27" t="s">
         <v>748</v>
       </c>
-      <c r="U16" s="38" t="s">
+      <c r="U16" s="27" t="s">
         <v>749</v>
       </c>
-      <c r="V16" s="38" t="s">
+      <c r="V16" s="27" t="s">
         <v>750</v>
       </c>
-      <c r="W16" s="38" t="s">
+      <c r="W16" s="27" t="s">
         <v>751</v>
       </c>
-      <c r="X16" s="38" t="s">
+      <c r="X16" s="27" t="s">
         <v>752</v>
       </c>
-      <c r="Y16" s="38" t="s">
+      <c r="Y16" s="27" t="s">
         <v>753</v>
       </c>
-      <c r="Z16" s="38" t="s">
+      <c r="Z16" s="27" t="s">
         <v>754</v>
       </c>
-      <c r="AA16" s="37" t="s">
+      <c r="AA16" s="26" t="s">
         <v>755</v>
       </c>
-      <c r="AB16" s="27" t="s">
+      <c r="AB16" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23" t="s">
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="27" t="s">
         <v>756</v>
       </c>
-      <c r="AE16" s="23" t="s">
+      <c r="AE16" s="27" t="s">
         <v>757</v>
       </c>
-      <c r="AF16" s="23" t="s">
+      <c r="AF16" s="21" t="s">
         <v>758</v>
       </c>
-      <c r="AG16" s="23" t="s">
+      <c r="AG16" s="21" t="s">
         <v>759</v>
       </c>
-      <c r="AH16" s="23" t="s">
+      <c r="AH16" s="27" t="s">
         <v>760</v>
       </c>
-      <c r="AI16" s="23" t="s">
+      <c r="AI16" s="27" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="28" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21" t="s">
+    <row r="17" spans="1:35" s="24" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
         <v>762</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>763</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="27" t="s">
         <v>764</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="27" t="s">
         <v>765</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="27" t="s">
         <v>766</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="26" t="s">
         <v>767</v>
       </c>
-      <c r="G17" s="38" t="s">
+      <c r="G17" s="27" t="s">
         <v>768</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="27" t="s">
         <v>769</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="26" t="s">
         <v>770</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="26" t="s">
         <v>771</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="26" t="s">
         <v>772</v>
       </c>
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="26" t="s">
         <v>773</v>
       </c>
-      <c r="M17" s="37" t="s">
+      <c r="M17" s="26" t="s">
         <v>774</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="N17" s="26" t="s">
         <v>775</v>
       </c>
-      <c r="O17" s="38" t="s">
+      <c r="O17" s="27" t="s">
         <v>776</v>
       </c>
-      <c r="P17" s="38" t="s">
+      <c r="P17" s="27" t="s">
         <v>777</v>
       </c>
-      <c r="Q17" s="38" t="s">
+      <c r="Q17" s="27" t="s">
         <v>778</v>
       </c>
-      <c r="R17" s="38" t="s">
+      <c r="R17" s="27" t="s">
         <v>779</v>
       </c>
-      <c r="S17" s="38" t="s">
+      <c r="S17" s="27" t="s">
         <v>780</v>
       </c>
-      <c r="T17" s="38" t="s">
+      <c r="T17" s="27" t="s">
         <v>781</v>
       </c>
-      <c r="U17" s="38" t="s">
+      <c r="U17" s="27" t="s">
         <v>782</v>
       </c>
-      <c r="V17" s="38" t="s">
+      <c r="V17" s="27" t="s">
         <v>783</v>
       </c>
-      <c r="W17" s="38" t="s">
+      <c r="W17" s="27" t="s">
         <v>784</v>
       </c>
-      <c r="X17" s="38" t="s">
+      <c r="X17" s="27" t="s">
         <v>785</v>
       </c>
-      <c r="Y17" s="38" t="s">
+      <c r="Y17" s="27" t="s">
         <v>786</v>
       </c>
-      <c r="Z17" s="38" t="s">
+      <c r="Z17" s="27" t="s">
         <v>787</v>
       </c>
-      <c r="AA17" s="37" t="s">
+      <c r="AA17" s="26" t="s">
         <v>788</v>
       </c>
-      <c r="AB17" s="27" t="s">
+      <c r="AB17" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23" t="s">
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="27" t="s">
         <v>789</v>
       </c>
-      <c r="AE17" s="23" t="s">
+      <c r="AE17" s="27" t="s">
         <v>790</v>
       </c>
-      <c r="AF17" s="23" t="s">
+      <c r="AF17" s="21" t="s">
         <v>791</v>
       </c>
-      <c r="AG17" s="23" t="s">
+      <c r="AG17" s="21" t="s">
         <v>792</v>
       </c>
-      <c r="AH17" s="23" t="s">
+      <c r="AH17" s="27" t="s">
         <v>793</v>
       </c>
-      <c r="AI17" s="23" t="s">
+      <c r="AI17" s="27" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="18" spans="1:35" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="22" t="s">
         <v>597</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="23" t="s">
         <v>598</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>599</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="25" t="s">
         <v>600</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="25" t="s">
         <v>601</v>
       </c>
-      <c r="F18" s="37" t="s">
+      <c r="F18" s="26" t="s">
         <v>602</v>
       </c>
-      <c r="G18" s="38" t="s">
+      <c r="G18" s="27" t="s">
         <v>603</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="27" t="s">
         <v>604</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="K18" s="37" t="s">
+      <c r="K18" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="L18" s="37" t="s">
+      <c r="L18" s="26" t="s">
         <v>608</v>
       </c>
-      <c r="M18" s="37" t="s">
+      <c r="M18" s="26" t="s">
         <v>609</v>
       </c>
-      <c r="N18" s="37" t="s">
+      <c r="N18" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="O18" s="38" t="s">
+      <c r="O18" s="27" t="s">
         <v>611</v>
       </c>
-      <c r="P18" s="38" t="s">
+      <c r="P18" s="27" t="s">
         <v>612</v>
       </c>
-      <c r="Q18" s="38" t="s">
+      <c r="Q18" s="27" t="s">
         <v>613</v>
       </c>
-      <c r="R18" s="38" t="s">
+      <c r="R18" s="27" t="s">
         <v>614</v>
       </c>
-      <c r="S18" s="38" t="s">
+      <c r="S18" s="27" t="s">
         <v>615</v>
       </c>
-      <c r="T18" s="38" t="s">
+      <c r="T18" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="U18" s="38" t="s">
+      <c r="U18" s="27" t="s">
         <v>617</v>
       </c>
-      <c r="V18" s="38" t="s">
+      <c r="V18" s="27" t="s">
         <v>618</v>
       </c>
-      <c r="W18" s="38" t="s">
+      <c r="W18" s="27" t="s">
         <v>619</v>
       </c>
-      <c r="X18" s="38" t="s">
+      <c r="X18" s="27" t="s">
         <v>620</v>
       </c>
-      <c r="Y18" s="38" t="s">
+      <c r="Y18" s="27" t="s">
         <v>621</v>
       </c>
-      <c r="Z18" s="38" t="s">
+      <c r="Z18" s="27" t="s">
         <v>622</v>
       </c>
-      <c r="AA18" s="37" t="s">
+      <c r="AA18" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="AB18" s="17" t="s">
+      <c r="AB18" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26" t="s">
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="25" t="s">
         <v>624</v>
       </c>
-      <c r="AE18" s="26" t="s">
+      <c r="AE18" s="25" t="s">
         <v>625</v>
       </c>
-      <c r="AF18" s="26" t="s">
+      <c r="AF18" s="23" t="s">
         <v>626</v>
       </c>
-      <c r="AG18" s="26" t="s">
+      <c r="AG18" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="AH18" s="26" t="s">
+      <c r="AH18" s="25" t="s">
         <v>628</v>
       </c>
-      <c r="AI18" s="26" t="s">
+      <c r="AI18" s="25" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="19" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>452</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="H19" s="38" t="s">
+      <c r="H19" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="27" t="s">
         <v>486</v>
       </c>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="K19" s="38" t="s">
+      <c r="K19" s="27" t="s">
         <v>520</v>
       </c>
-      <c r="L19" s="38" t="s">
+      <c r="L19" s="27" t="s">
         <v>537</v>
       </c>
-      <c r="M19" s="38" t="s">
+      <c r="M19" s="27" t="s">
         <v>554</v>
       </c>
-      <c r="N19" s="38" t="s">
+      <c r="N19" s="27" t="s">
         <v>571</v>
       </c>
-      <c r="O19" s="38" t="s">
+      <c r="O19" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="P19" s="38" t="s">
+      <c r="P19" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="Q19" s="38" t="s">
+      <c r="Q19" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="R19" s="38" t="s">
+      <c r="R19" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="S19" s="38" t="s">
+      <c r="S19" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="T19" s="38" t="s">
+      <c r="T19" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="U19" s="38" t="s">
+      <c r="U19" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="V19" s="38" t="s">
+      <c r="V19" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="W19" s="38" t="s">
+      <c r="W19" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="X19" s="38" t="s">
+      <c r="X19" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="Y19" s="38" t="s">
+      <c r="Y19" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="Z19" s="38" t="s">
+      <c r="Z19" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="AA19" s="38" t="s">
+      <c r="AA19" s="27" t="s">
         <v>588</v>
       </c>
-      <c r="AB19" s="17" t="s">
+      <c r="AB19" s="28" t="s">
         <v>596</v>
       </c>
       <c r="AC19" s="12"/>
-      <c r="AD19" s="12" t="s">
+      <c r="AD19" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="AE19" s="12" t="s">
+      <c r="AE19" s="25" t="s">
         <v>260</v>
       </c>
       <c r="AF19" s="12" t="s">
@@ -4926,103 +4938,103 @@
       <c r="AG19" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="AH19" s="12" t="s">
+      <c r="AH19" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="AI19" s="12" t="s">
+      <c r="AI19" s="25" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>453</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="27" t="s">
         <v>467</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="J20" s="27" t="s">
         <v>504</v>
       </c>
-      <c r="K20" s="38" t="s">
+      <c r="K20" s="27" t="s">
         <v>521</v>
       </c>
-      <c r="L20" s="38" t="s">
+      <c r="L20" s="27" t="s">
         <v>538</v>
       </c>
-      <c r="M20" s="38" t="s">
+      <c r="M20" s="27" t="s">
         <v>555</v>
       </c>
-      <c r="N20" s="38" t="s">
+      <c r="N20" s="27" t="s">
         <v>572</v>
       </c>
-      <c r="O20" s="38" t="s">
+      <c r="O20" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="P20" s="38" t="s">
+      <c r="P20" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="Q20" s="38" t="s">
+      <c r="Q20" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="R20" s="38" t="s">
+      <c r="R20" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="S20" s="38" t="s">
+      <c r="S20" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="T20" s="38" t="s">
+      <c r="T20" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="U20" s="38" t="s">
+      <c r="U20" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="V20" s="38" t="s">
+      <c r="V20" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="W20" s="38" t="s">
+      <c r="W20" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="X20" s="38" t="s">
+      <c r="X20" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="Y20" s="38" t="s">
+      <c r="Y20" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="Z20" s="38" t="s">
+      <c r="Z20" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="AA20" s="38" t="s">
+      <c r="AA20" s="27" t="s">
         <v>589</v>
       </c>
-      <c r="AB20" s="17" t="s">
+      <c r="AB20" s="28" t="s">
         <v>596</v>
       </c>
       <c r="AC20" s="12"/>
-      <c r="AD20" s="12" t="s">
+      <c r="AD20" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="AE20" s="12" t="s">
+      <c r="AE20" s="25" t="s">
         <v>284</v>
       </c>
       <c r="AF20" s="12" t="s">
@@ -5031,103 +5043,103 @@
       <c r="AG20" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="AH20" s="12" t="s">
+      <c r="AH20" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="AI20" s="12" t="s">
+      <c r="AI20" s="25" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>454</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="H21" s="38" t="s">
+      <c r="H21" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="I21" s="38" t="s">
+      <c r="I21" s="27" t="s">
         <v>488</v>
       </c>
-      <c r="J21" s="38" t="s">
+      <c r="J21" s="27" t="s">
         <v>505</v>
       </c>
-      <c r="K21" s="38" t="s">
+      <c r="K21" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="L21" s="38" t="s">
+      <c r="L21" s="27" t="s">
         <v>539</v>
       </c>
-      <c r="M21" s="38" t="s">
+      <c r="M21" s="27" t="s">
         <v>556</v>
       </c>
-      <c r="N21" s="38" t="s">
+      <c r="N21" s="27" t="s">
         <v>573</v>
       </c>
-      <c r="O21" s="38" t="s">
+      <c r="O21" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="P21" s="38" t="s">
+      <c r="P21" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="Q21" s="38" t="s">
+      <c r="Q21" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="R21" s="38" t="s">
+      <c r="R21" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="S21" s="38" t="s">
+      <c r="S21" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="T21" s="38" t="s">
+      <c r="T21" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="U21" s="38" t="s">
+      <c r="U21" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="V21" s="38" t="s">
+      <c r="V21" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="W21" s="38" t="s">
+      <c r="W21" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="X21" s="38" t="s">
+      <c r="X21" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="Y21" s="38" t="s">
+      <c r="Y21" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="Z21" s="38" t="s">
+      <c r="Z21" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="AA21" s="38" t="s">
+      <c r="AA21" s="27" t="s">
         <v>590</v>
       </c>
-      <c r="AB21" s="17" t="s">
+      <c r="AB21" s="28" t="s">
         <v>596</v>
       </c>
       <c r="AC21" s="12"/>
-      <c r="AD21" s="12" t="s">
+      <c r="AD21" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="AE21" s="12" t="s">
+      <c r="AE21" s="25" t="s">
         <v>308</v>
       </c>
       <c r="AF21" s="12" t="s">
@@ -5136,103 +5148,103 @@
       <c r="AG21" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="AH21" s="12" t="s">
+      <c r="AH21" s="25" t="s">
         <v>311</v>
       </c>
-      <c r="AI21" s="12" t="s">
+      <c r="AI21" s="25" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>455</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="27" t="s">
         <v>469</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="27" t="s">
         <v>489</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="J22" s="27" t="s">
         <v>506</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="L22" s="27" t="s">
         <v>540</v>
       </c>
-      <c r="M22" s="38" t="s">
+      <c r="M22" s="27" t="s">
         <v>557</v>
       </c>
-      <c r="N22" s="38" t="s">
+      <c r="N22" s="27" t="s">
         <v>574</v>
       </c>
-      <c r="O22" s="38" t="s">
+      <c r="O22" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="P22" s="38" t="s">
+      <c r="P22" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="Q22" s="38" t="s">
+      <c r="Q22" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="R22" s="38" t="s">
+      <c r="R22" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="S22" s="38" t="s">
+      <c r="S22" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="T22" s="38" t="s">
+      <c r="T22" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="U22" s="38" t="s">
+      <c r="U22" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="V22" s="38" t="s">
+      <c r="V22" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="W22" s="38" t="s">
+      <c r="W22" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="X22" s="38" t="s">
+      <c r="X22" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="Y22" s="38" t="s">
+      <c r="Y22" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="Z22" s="38" t="s">
+      <c r="Z22" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="AA22" s="38" t="s">
+      <c r="AA22" s="27" t="s">
         <v>591</v>
       </c>
-      <c r="AB22" s="17" t="s">
+      <c r="AB22" s="28" t="s">
         <v>596</v>
       </c>
       <c r="AC22" s="12"/>
-      <c r="AD22" s="12" t="s">
+      <c r="AD22" s="25" t="s">
         <v>331</v>
       </c>
-      <c r="AE22" s="12" t="s">
+      <c r="AE22" s="25" t="s">
         <v>332</v>
       </c>
       <c r="AF22" s="12" t="s">
@@ -5241,103 +5253,103 @@
       <c r="AG22" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="AH22" s="36" t="s">
+      <c r="AH22" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="AI22" s="36" t="s">
+      <c r="AI22" s="25" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>456</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H23" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="J23" s="38" t="s">
+      <c r="J23" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="K23" s="38" t="s">
+      <c r="K23" s="27" t="s">
         <v>524</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="27" t="s">
         <v>541</v>
       </c>
-      <c r="M23" s="38" t="s">
+      <c r="M23" s="27" t="s">
         <v>558</v>
       </c>
-      <c r="N23" s="38" t="s">
+      <c r="N23" s="27" t="s">
         <v>575</v>
       </c>
-      <c r="O23" s="38" t="s">
+      <c r="O23" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="P23" s="38" t="s">
+      <c r="P23" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="Q23" s="38" t="s">
+      <c r="Q23" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="R23" s="38" t="s">
+      <c r="R23" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="S23" s="38" t="s">
+      <c r="S23" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="T23" s="38" t="s">
+      <c r="T23" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="U23" s="38" t="s">
+      <c r="U23" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="V23" s="38" t="s">
+      <c r="V23" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="W23" s="38" t="s">
+      <c r="W23" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="X23" s="38" t="s">
+      <c r="X23" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="Y23" s="38" t="s">
+      <c r="Y23" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="Z23" s="38" t="s">
+      <c r="Z23" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="AA23" s="38" t="s">
+      <c r="AA23" s="27" t="s">
         <v>592</v>
       </c>
-      <c r="AB23" s="17" t="s">
+      <c r="AB23" s="28" t="s">
         <v>596</v>
       </c>
       <c r="AC23" s="12"/>
-      <c r="AD23" s="12" t="s">
+      <c r="AD23" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="AE23" s="12" t="s">
+      <c r="AE23" s="25" t="s">
         <v>356</v>
       </c>
       <c r="AF23" s="12" t="s">
@@ -5346,103 +5358,103 @@
       <c r="AG23" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="AH23" s="36" t="s">
+      <c r="AH23" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="AI23" s="36" t="s">
+      <c r="AI23" s="25" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>457</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="J24" s="38" t="s">
+      <c r="J24" s="27" t="s">
         <v>508</v>
       </c>
-      <c r="K24" s="38" t="s">
+      <c r="K24" s="27" t="s">
         <v>525</v>
       </c>
-      <c r="L24" s="38" t="s">
+      <c r="L24" s="27" t="s">
         <v>542</v>
       </c>
-      <c r="M24" s="38" t="s">
+      <c r="M24" s="27" t="s">
         <v>559</v>
       </c>
-      <c r="N24" s="38" t="s">
+      <c r="N24" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="O24" s="38" t="s">
+      <c r="O24" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="P24" s="38" t="s">
+      <c r="P24" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="Q24" s="38" t="s">
+      <c r="Q24" s="27" t="s">
         <v>369</v>
       </c>
-      <c r="R24" s="38" t="s">
+      <c r="R24" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="S24" s="38" t="s">
+      <c r="S24" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="T24" s="38" t="s">
+      <c r="T24" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="U24" s="38" t="s">
+      <c r="U24" s="27" t="s">
         <v>373</v>
       </c>
-      <c r="V24" s="38" t="s">
+      <c r="V24" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="W24" s="38" t="s">
+      <c r="W24" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="X24" s="38" t="s">
+      <c r="X24" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="Y24" s="38" t="s">
+      <c r="Y24" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="Z24" s="38" t="s">
+      <c r="Z24" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="AA24" s="38" t="s">
+      <c r="AA24" s="27" t="s">
         <v>593</v>
       </c>
-      <c r="AB24" s="17" t="s">
+      <c r="AB24" s="28" t="s">
         <v>596</v>
       </c>
       <c r="AC24" s="12"/>
-      <c r="AD24" s="12" t="s">
+      <c r="AD24" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="AE24" s="12" t="s">
+      <c r="AE24" s="25" t="s">
         <v>380</v>
       </c>
       <c r="AF24" s="12" t="s">
@@ -5451,103 +5463,103 @@
       <c r="AG24" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="AH24" s="36" t="s">
+      <c r="AH24" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="AI24" s="36" t="s">
+      <c r="AI24" s="25" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>458</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="H25" s="38" t="s">
+      <c r="H25" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="I25" s="38" t="s">
+      <c r="I25" s="27" t="s">
         <v>492</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="K25" s="38" t="s">
+      <c r="K25" s="27" t="s">
         <v>526</v>
       </c>
-      <c r="L25" s="38" t="s">
+      <c r="L25" s="27" t="s">
         <v>543</v>
       </c>
-      <c r="M25" s="38" t="s">
+      <c r="M25" s="27" t="s">
         <v>560</v>
       </c>
-      <c r="N25" s="38" t="s">
+      <c r="N25" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="O25" s="38" t="s">
+      <c r="O25" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="P25" s="38" t="s">
+      <c r="P25" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="Q25" s="38" t="s">
+      <c r="Q25" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="R25" s="38" t="s">
+      <c r="R25" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="S25" s="38" t="s">
+      <c r="S25" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="T25" s="38" t="s">
+      <c r="T25" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="U25" s="38" t="s">
+      <c r="U25" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="V25" s="38" t="s">
+      <c r="V25" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="W25" s="38" t="s">
+      <c r="W25" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="X25" s="38" t="s">
+      <c r="X25" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="Y25" s="38" t="s">
+      <c r="Y25" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="Z25" s="38" t="s">
+      <c r="Z25" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="AA25" s="38" t="s">
+      <c r="AA25" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="AB25" s="17" t="s">
+      <c r="AB25" s="28" t="s">
         <v>596</v>
       </c>
       <c r="AC25" s="12"/>
-      <c r="AD25" s="12" t="s">
+      <c r="AD25" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="AE25" s="12" t="s">
+      <c r="AE25" s="25" t="s">
         <v>404</v>
       </c>
       <c r="AF25" s="12" t="s">
@@ -5556,875 +5568,875 @@
       <c r="AG25" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="AH25" s="36" t="s">
+      <c r="AH25" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="AI25" s="36" t="s">
+      <c r="AI25" s="25" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:35" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="13">
+      <c r="B26" s="33"/>
+      <c r="C26" s="39">
         <f>SUM(C4:C25)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="39">
         <f t="shared" ref="D26:AA26" si="0">SUM(D4:D25)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O26" s="24">
+      <c r="O26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P26" s="24">
+      <c r="P26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="24">
+      <c r="Q26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R26" s="24">
+      <c r="R26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S26" s="24">
+      <c r="S26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T26" s="24">
+      <c r="T26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U26" s="24">
+      <c r="U26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V26" s="24">
+      <c r="V26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W26" s="24">
+      <c r="W26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X26" s="24">
+      <c r="X26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="24">
+      <c r="Y26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="24">
+      <c r="Z26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="24">
+      <c r="AA26" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="15">
+      <c r="AB26" s="39">
         <f>SUM(AB4:AB25)</f>
         <v>0</v>
       </c>
       <c r="AC26" s="13"/>
-      <c r="AD26" s="13">
+      <c r="AD26" s="39">
         <f>SUM(AD4:AD25)</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="13">
+      <c r="AE26" s="39">
         <f t="shared" ref="AE26:AI26" si="1">SUM(AE4:AE25)</f>
         <v>0</v>
       </c>
       <c r="AF26" s="13"/>
       <c r="AG26" s="13"/>
-      <c r="AH26" s="13">
+      <c r="AH26" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AI26" s="13">
+      <c r="AI26" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:35" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>459</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="25" t="s">
         <v>412</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="25" t="s">
         <v>413</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="27" t="s">
         <v>473</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="H27" s="38" t="s">
+      <c r="H27" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="K27" s="38" t="s">
+      <c r="K27" s="27" t="s">
         <v>527</v>
       </c>
-      <c r="L27" s="38" t="s">
+      <c r="L27" s="27" t="s">
         <v>544</v>
       </c>
-      <c r="M27" s="38" t="s">
+      <c r="M27" s="27" t="s">
         <v>561</v>
       </c>
-      <c r="N27" s="38" t="s">
+      <c r="N27" s="27" t="s">
         <v>578</v>
       </c>
-      <c r="O27" s="38" t="s">
+      <c r="O27" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="P27" s="38" t="s">
+      <c r="P27" s="27" t="s">
         <v>417</v>
       </c>
-      <c r="Q27" s="38" t="s">
+      <c r="Q27" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="R27" s="38" t="s">
+      <c r="R27" s="27" t="s">
         <v>419</v>
       </c>
-      <c r="S27" s="38" t="s">
+      <c r="S27" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="T27" s="38" t="s">
+      <c r="T27" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="U27" s="38" t="s">
+      <c r="U27" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="V27" s="38" t="s">
+      <c r="V27" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="W27" s="38" t="s">
+      <c r="W27" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="X27" s="38" t="s">
+      <c r="X27" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="Y27" s="38" t="s">
+      <c r="Y27" s="27" t="s">
         <v>426</v>
       </c>
-      <c r="Z27" s="38" t="s">
+      <c r="Z27" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="AA27" s="38" t="s">
+      <c r="AA27" s="27" t="s">
         <v>595</v>
       </c>
-      <c r="AB27" s="17" t="s">
+      <c r="AB27" s="28" t="s">
         <v>596</v>
       </c>
       <c r="AC27" s="12"/>
-      <c r="AD27" s="12" t="s">
+      <c r="AD27" s="25" t="s">
         <v>428</v>
       </c>
-      <c r="AE27" s="12" t="s">
+      <c r="AE27" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="AF27" s="12" t="s">
+      <c r="AF27" s="30" t="s">
         <v>430</v>
       </c>
-      <c r="AG27" s="12" t="s">
+      <c r="AG27" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="AH27" s="36" t="s">
+      <c r="AH27" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="AI27" s="36" t="s">
+      <c r="AI27" s="25" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:35" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="13">
+      <c r="B28" s="33"/>
+      <c r="C28" s="39">
         <f t="shared" ref="C28:AB28" si="2">SUM(C27:C27)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O28" s="24">
+      <c r="O28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P28" s="24">
+      <c r="P28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="24">
+      <c r="Q28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R28" s="24">
+      <c r="R28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S28" s="24">
+      <c r="S28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T28" s="24">
+      <c r="T28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U28" s="24">
+      <c r="U28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V28" s="24">
+      <c r="V28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W28" s="24">
+      <c r="W28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X28" s="24">
+      <c r="X28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="24">
+      <c r="Y28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="24">
+      <c r="Z28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="24">
+      <c r="AA28" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="15">
+      <c r="AB28" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC28" s="13"/>
-      <c r="AD28" s="13">
+      <c r="AD28" s="39">
         <f t="shared" ref="AD28:AI28" si="3">SUM(AD27:AD27)</f>
         <v>0</v>
       </c>
-      <c r="AE28" s="13">
+      <c r="AE28" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF28" s="13"/>
       <c r="AG28" s="13"/>
-      <c r="AH28" s="13">
+      <c r="AH28" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI28" s="13">
+      <c r="AI28" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="14"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
     </row>
     <row r="30" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="14"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
     </row>
     <row r="31" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="14"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
     </row>
     <row r="32" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="14"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-      <c r="AA32" s="19"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
     </row>
     <row r="33" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="14"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
     </row>
     <row r="34" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="14"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-      <c r="AA34" s="19"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
     </row>
     <row r="35" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="14"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
     </row>
     <row r="36" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="14"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
     </row>
     <row r="37" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="14"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="19"/>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
     </row>
     <row r="38" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="14"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
     </row>
     <row r="39" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="14"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
     </row>
     <row r="40" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="14"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-      <c r="AA40" s="19"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
     </row>
     <row r="41" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="14"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
     </row>
     <row r="42" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="14"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="19"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
     </row>
     <row r="43" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="14"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-      <c r="AA43" s="19"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
     </row>
     <row r="44" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="14"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
-      <c r="AA44" s="19"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
     </row>
     <row r="45" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="14"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="19"/>
-      <c r="X45" s="19"/>
-      <c r="Y45" s="19"/>
-      <c r="Z45" s="19"/>
-      <c r="AA45" s="19"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
     </row>
     <row r="46" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="14"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="19"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
     </row>
     <row r="47" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="14"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="19"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
     </row>
     <row r="48" spans="2:27" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="14"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="19"/>
-      <c r="X48" s="19"/>
-      <c r="Y48" s="19"/>
-      <c r="Z48" s="19"/>
-      <c r="AA48" s="19"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
